--- a/data/Carrizo_telemetry_2018.xlsx
+++ b/data/Carrizo_telemetry_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-32620" yWindow="900" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="61">
-  <si>
-    <t>Steph, Eva, Mario</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="67">
   <si>
     <t>shrub</t>
   </si>
@@ -45,9 +42,6 @@
     <t>standing</t>
   </si>
   <si>
-    <t>Steph, Eva, Mario, Rich</t>
-  </si>
-  <si>
     <t>12B</t>
   </si>
   <si>
@@ -58,12 +52,6 @@
   </si>
   <si>
     <t>5M from shrub</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Steph</t>
   </si>
   <si>
     <t>2M from Shrub</t>
@@ -189,15 +177,6 @@
     <t>First location as first day</t>
   </si>
   <si>
-    <t>Note 12B is missing at this point in time*</t>
-  </si>
-  <si>
-    <t>Note: This one was hunting a grasshopper</t>
-  </si>
-  <si>
-    <t>Note: Birds nest in shrub</t>
-  </si>
-  <si>
     <t>Lizard 64 and 93 coordinates are not valid</t>
   </si>
   <si>
@@ -205,6 +184,45 @@
   </si>
   <si>
     <t>rep</t>
+  </si>
+  <si>
+    <t>sunning</t>
+  </si>
+  <si>
+    <t>steph</t>
+  </si>
+  <si>
+    <t>with another collared lizard</t>
+  </si>
+  <si>
+    <t>interacting</t>
+  </si>
+  <si>
+    <t>2M from shrub</t>
+  </si>
+  <si>
+    <t>mario</t>
+  </si>
+  <si>
+    <t>steph eva mario</t>
+  </si>
+  <si>
+    <t>steph eva mario rich</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>May 13 lizard 47 and 130 missed</t>
+  </si>
+  <si>
+    <t>12B is missing at this point in time</t>
+  </si>
+  <si>
+    <t>Birds nest in shrub</t>
+  </si>
+  <si>
+    <t>This one was hunting a grasshopper</t>
   </si>
 </sst>
 </file>
@@ -693,87 +711,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R155"/>
+  <dimension ref="A1:R183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E96" sqref="A1:R155"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="32.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -799,7 +817,7 @@
         <v>0.37638888888888888</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>35.118940000000002</v>
@@ -808,19 +826,19 @@
         <v>-119.62891</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R2" s="3"/>
     </row>
@@ -847,7 +865,7 @@
         <v>0.38055555555555554</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>35.118720000000003</v>
@@ -856,19 +874,19 @@
         <v>-119.62914000000001</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R3" s="3"/>
     </row>
@@ -895,7 +913,7 @@
         <v>0.3972222222222222</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>35.120469999999997</v>
@@ -904,19 +922,19 @@
         <v>-119.63068</v>
       </c>
       <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="L4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
       <c r="P4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R4" s="3"/>
     </row>
@@ -943,7 +961,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>35.126269999999998</v>
@@ -952,22 +970,22 @@
         <v>-119.63705</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R5" s="3"/>
     </row>
@@ -994,7 +1012,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>35.124200000000002</v>
@@ -1003,19 +1021,19 @@
         <v>-119.63585999999999</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R6" s="3"/>
     </row>
@@ -1042,7 +1060,7 @@
         <v>0.4375</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <v>35.125050000000002</v>
@@ -1051,21 +1069,20 @@
         <v>-119.6367</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
@@ -1090,7 +1107,7 @@
         <v>0.64861111111111114</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I8">
         <v>35.118119999999998</v>
@@ -1099,19 +1116,19 @@
         <v>-119.62665</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="R8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1137,7 +1154,7 @@
         <v>0.67152777777777783</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I9">
         <v>35.11647</v>
@@ -1146,16 +1163,16 @@
         <v>-119.62562</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1181,7 +1198,7 @@
         <v>0.58263888888888882</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I10">
         <v>35.115259999999999</v>
@@ -1190,16 +1207,16 @@
         <v>-119.62473</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1225,7 +1242,7 @@
         <v>0.58819444444444446</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I11">
         <v>35.115020000000001</v>
@@ -1234,16 +1251,16 @@
         <v>-119.62455</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1269,7 +1286,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I12">
         <v>35.12041</v>
@@ -1278,16 +1295,16 @@
         <v>-119.62541</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1313,7 +1330,7 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I13">
         <v>35.117339999999999</v>
@@ -1322,19 +1339,19 @@
         <v>-119.62766000000001</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1360,7 +1377,7 @@
         <v>0.68125000000000002</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I14">
         <v>35.11741</v>
@@ -1369,22 +1386,22 @@
         <v>-119.63319</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
         <v>36</v>
       </c>
-      <c r="N14" t="s">
-        <v>40</v>
-      </c>
       <c r="P14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1410,7 +1427,7 @@
         <v>0.4826388888888889</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I15">
         <v>35.117150000000002</v>
@@ -1419,19 +1436,19 @@
         <v>-119.62742</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1457,7 +1474,7 @@
         <v>0.54305555555555551</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I16">
         <v>35.117130000000003</v>
@@ -1466,19 +1483,19 @@
         <v>-119.63454</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1504,7 +1521,7 @@
         <v>0.52986111111111112</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I17">
         <v>35.118839999999999</v>
@@ -1513,19 +1530,19 @@
         <v>-119.63136</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1551,7 +1568,7 @@
         <v>0.44861111111111113</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I18">
         <v>35.119529999999997</v>
@@ -1560,16 +1577,16 @@
         <v>-119.6289</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q18" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1595,7 +1612,7 @@
         <v>0.67569444444444438</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I19">
         <v>35.116340000000001</v>
@@ -1604,16 +1621,16 @@
         <v>-119.63602</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1639,7 +1656,7 @@
         <v>0.44236111111111115</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I20">
         <v>35.11985</v>
@@ -1648,19 +1665,19 @@
         <v>-119.62864</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1686,7 +1703,7 @@
         <v>0.63958333333333328</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I21">
         <v>35.120899999999999</v>
@@ -1695,19 +1712,19 @@
         <v>-119.62515</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1733,7 +1750,7 @@
         <v>0.40833333333333338</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I22">
         <v>35.118470000000002</v>
@@ -1742,19 +1759,19 @@
         <v>-119.62918999999999</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1780,7 +1797,7 @@
         <v>0.55833333333333335</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I23">
         <v>35.111879999999999</v>
@@ -1789,22 +1806,22 @@
         <v>-119.633</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1830,7 +1847,7 @@
         <v>0.53541666666666665</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I24">
         <v>35.117840000000001</v>
@@ -1839,19 +1856,19 @@
         <v>-119.63245000000001</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1877,7 +1894,7 @@
         <v>0.73402777777777783</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I25">
         <v>35.116909999999997</v>
@@ -1886,16 +1903,16 @@
         <v>-119.62555</v>
       </c>
       <c r="K25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1921,7 +1938,7 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I26">
         <v>35.117789999999999</v>
@@ -1930,16 +1947,16 @@
         <v>-119.62448000000001</v>
       </c>
       <c r="K26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1965,7 +1982,7 @@
         <v>0.37986111111111115</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I27">
         <v>35.126579999999997</v>
@@ -1974,16 +1991,16 @@
         <v>-119.63655</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2009,7 +2026,7 @@
         <v>0.39444444444444443</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I28">
         <v>35.123899999999999</v>
@@ -2018,16 +2035,16 @@
         <v>-119.63592</v>
       </c>
       <c r="K28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2053,7 +2070,7 @@
         <v>0.7104166666666667</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I29">
         <v>35.118499999999997</v>
@@ -2062,19 +2079,19 @@
         <v>-119.62555</v>
       </c>
       <c r="K29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2100,7 +2117,7 @@
         <v>0.59305555555555556</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I30">
         <v>35.115279999999998</v>
@@ -2109,22 +2126,22 @@
         <v>-119.62378</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="R30" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2150,7 +2167,7 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I31">
         <v>35.12059</v>
@@ -2159,19 +2176,19 @@
         <v>-119.62858</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L31" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
         <v>2</v>
       </c>
-      <c r="M31" t="s">
-        <v>3</v>
-      </c>
       <c r="P31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2197,7 +2214,7 @@
         <v>0.38958333333333334</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I32">
         <v>35.124949999999998</v>
@@ -2206,17 +2223,18 @@
         <v>-119.63647</v>
       </c>
       <c r="K32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="s">
-        <v>7</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33">
@@ -2241,7 +2259,7 @@
         <v>0.5395833333333333</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I33">
         <v>35.117820000000002</v>
@@ -2250,19 +2268,19 @@
         <v>-119.63325</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2288,7 +2306,7 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I34">
         <v>35.116480000000003</v>
@@ -2297,19 +2315,19 @@
         <v>-119.62609999999999</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2335,7 +2353,7 @@
         <v>0.5</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I35">
         <v>35.121070000000003</v>
@@ -2344,19 +2362,19 @@
         <v>-119.62835</v>
       </c>
       <c r="K35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2382,7 +2400,7 @@
         <v>0.72430555555555554</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I36">
         <v>35.12079</v>
@@ -2391,16 +2409,16 @@
         <v>-119.62849</v>
       </c>
       <c r="K36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2426,7 +2444,7 @@
         <v>0.56736111111111109</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I37">
         <v>35.118020000000001</v>
@@ -2435,19 +2453,19 @@
         <v>-119.62654999999999</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2473,7 +2491,7 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I38">
         <v>35.11636</v>
@@ -2482,16 +2500,16 @@
         <v>-119.63663</v>
       </c>
       <c r="K38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2517,7 +2535,7 @@
         <v>0.49652777777777773</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I39">
         <v>35.115119999999997</v>
@@ -2526,22 +2544,22 @@
         <v>-119.62488999999999</v>
       </c>
       <c r="K39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
         <v>33</v>
       </c>
-      <c r="L39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M39" t="s">
-        <v>37</v>
-      </c>
       <c r="P39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="R39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2567,7 +2585,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I40">
         <v>35.115400000000001</v>
@@ -2576,19 +2594,19 @@
         <v>-119.62389</v>
       </c>
       <c r="K40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q40" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2614,7 +2632,7 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I41">
         <v>35.120429999999999</v>
@@ -2623,22 +2641,22 @@
         <v>-119.6254</v>
       </c>
       <c r="K41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2664,7 +2682,7 @@
         <v>0.55972222222222223</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I42">
         <v>35.117350000000002</v>
@@ -2673,22 +2691,22 @@
         <v>-119.62676</v>
       </c>
       <c r="K42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2714,7 +2732,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I43">
         <v>35.117570000000001</v>
@@ -2723,19 +2741,19 @@
         <v>-119.63406000000001</v>
       </c>
       <c r="K43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q43" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -2761,7 +2779,7 @@
         <v>0.63263888888888886</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I44">
         <v>35.116210000000002</v>
@@ -2770,19 +2788,19 @@
         <v>-119.61999</v>
       </c>
       <c r="K44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -2808,7 +2826,7 @@
         <v>0.49583333333333335</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I45">
         <v>35.1175</v>
@@ -2817,22 +2835,22 @@
         <v>-119.63663</v>
       </c>
       <c r="K45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q45" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="R45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -2858,7 +2876,7 @@
         <v>0.52152777777777781</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I46">
         <v>35.118340000000003</v>
@@ -2867,19 +2885,19 @@
         <v>-119.63204</v>
       </c>
       <c r="K46" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P46" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q46" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -2905,7 +2923,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I47">
         <v>35.119810000000001</v>
@@ -2914,19 +2932,19 @@
         <v>-119.62855999999999</v>
       </c>
       <c r="K47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q47" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -2952,7 +2970,7 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I48">
         <v>35.116549999999997</v>
@@ -2961,19 +2979,19 @@
         <v>-119.63594999999999</v>
       </c>
       <c r="K48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q48" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="R48" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -2999,7 +3017,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I49">
         <v>35.119430000000001</v>
@@ -3008,16 +3026,16 @@
         <v>-119.62945999999999</v>
       </c>
       <c r="K49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q49" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3043,7 +3061,7 @@
         <v>0.59375</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I50">
         <v>35.120829999999998</v>
@@ -3052,19 +3070,19 @@
         <v>-119.62513</v>
       </c>
       <c r="K50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P50" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q50" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3090,7 +3108,7 @@
         <v>0.55694444444444446</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I51">
         <v>35.119050000000001</v>
@@ -3099,19 +3117,19 @@
         <v>-119.63043</v>
       </c>
       <c r="K51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P51" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q51" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3119,7 +3137,7 @@
         <v>2018</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>16</v>
@@ -3137,7 +3155,7 @@
         <v>0.53888888888888886</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I52">
         <v>35.118110000000001</v>
@@ -3146,16 +3164,16 @@
         <v>-119.62936000000001</v>
       </c>
       <c r="K52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3181,7 +3199,7 @@
         <v>0.56805555555555554</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I53">
         <v>35.112209999999997</v>
@@ -3190,19 +3208,19 @@
         <v>-119.63293</v>
       </c>
       <c r="K53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P53" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q53" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3228,7 +3246,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I54">
         <v>35.118079999999999</v>
@@ -3237,19 +3255,19 @@
         <v>-119.6326</v>
       </c>
       <c r="K54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P54" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q54" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3275,7 +3293,7 @@
         <v>0.64861111111111114</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I55">
         <v>35.120530000000002</v>
@@ -3284,19 +3302,19 @@
         <v>-119.62569000000001</v>
       </c>
       <c r="K55" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
         <v>33</v>
       </c>
-      <c r="L55" t="s">
-        <v>2</v>
-      </c>
-      <c r="M55" t="s">
-        <v>37</v>
-      </c>
       <c r="P55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3322,7 +3340,7 @@
         <v>0.5131944444444444</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I56">
         <v>35.117719999999998</v>
@@ -3331,22 +3349,22 @@
         <v>-119.62737</v>
       </c>
       <c r="K56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="R56" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3372,7 +3390,7 @@
         <v>0.46388888888888885</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I57">
         <v>35.126660000000001</v>
@@ -3381,16 +3399,16 @@
         <v>-119.63724999999999</v>
       </c>
       <c r="K57" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q57" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3416,7 +3434,7 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I58">
         <v>35.124049999999997</v>
@@ -3425,19 +3443,19 @@
         <v>-119.63673</v>
       </c>
       <c r="K58" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -3463,7 +3481,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I59">
         <v>35.117930000000001</v>
@@ -3472,19 +3490,19 @@
         <v>-119.62604</v>
       </c>
       <c r="K59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q59" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -3510,7 +3528,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I60">
         <v>35.115729999999999</v>
@@ -3519,19 +3537,19 @@
         <v>-119.62421000000001</v>
       </c>
       <c r="K60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q60" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -3557,7 +3575,7 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I61">
         <v>35.12529</v>
@@ -3566,16 +3584,16 @@
         <v>-119.63709</v>
       </c>
       <c r="K61" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q61" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -3601,7 +3619,7 @@
         <v>0.53125</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I62">
         <v>35.117339999999999</v>
@@ -3610,19 +3628,19 @@
         <v>-119.63327</v>
       </c>
       <c r="K62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q62" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -3648,7 +3666,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I63">
         <v>35.116630000000001</v>
@@ -3657,22 +3675,22 @@
         <v>-119.62685</v>
       </c>
       <c r="K63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N63" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P63" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q63" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -3698,7 +3716,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I64">
         <v>35.121740000000003</v>
@@ -3707,22 +3725,22 @@
         <v>-119.62857</v>
       </c>
       <c r="K64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P64" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -3745,7 +3763,7 @@
         <v>0.66111111111111109</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I65">
         <v>35.119689999999999</v>
@@ -3754,22 +3772,19 @@
         <v>-119.6216</v>
       </c>
       <c r="K65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q65" t="s">
-        <v>13</v>
-      </c>
-      <c r="R65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3792,7 +3807,7 @@
         <v>0.54097222222222219</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I66">
         <v>35.118290000000002</v>
@@ -3801,22 +3816,22 @@
         <v>-119.62634</v>
       </c>
       <c r="K66" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -3839,7 +3854,7 @@
         <v>0.48680555555555555</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I67">
         <v>35.116979999999998</v>
@@ -3848,22 +3863,22 @@
         <v>-119.63414</v>
       </c>
       <c r="K67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -3886,7 +3901,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I68">
         <v>35.11506</v>
@@ -3895,25 +3910,25 @@
         <v>-119.62512</v>
       </c>
       <c r="K68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N68" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -3936,7 +3951,7 @@
         <v>0.4680555555555555</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I69">
         <v>35.115169999999999</v>
@@ -3945,22 +3960,22 @@
         <v>-119.62372999999999</v>
       </c>
       <c r="K69" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -3983,7 +3998,7 @@
         <v>0.5229166666666667</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I70">
         <v>35.120190000000001</v>
@@ -3992,22 +4007,22 @@
         <v>-119.625</v>
       </c>
       <c r="K70" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -4030,7 +4045,7 @@
         <v>0.5083333333333333</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I71">
         <v>35.117269999999998</v>
@@ -4039,25 +4054,25 @@
         <v>-119.62737</v>
       </c>
       <c r="K71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N71" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -4080,7 +4095,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I72">
         <v>35.117570000000001</v>
@@ -4089,19 +4104,19 @@
         <v>-119.63301</v>
       </c>
       <c r="K72" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -4124,7 +4139,7 @@
         <v>0.4458333333333333</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I73">
         <v>35.115960000000001</v>
@@ -4133,25 +4148,25 @@
         <v>-119.61955</v>
       </c>
       <c r="K73" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -4174,7 +4189,7 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I74">
         <v>35.117469999999997</v>
@@ -4183,19 +4198,19 @@
         <v>-119.63404</v>
       </c>
       <c r="K74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -4218,7 +4233,7 @@
         <v>0.4694444444444445</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I75">
         <v>35.118160000000003</v>
@@ -4227,22 +4242,22 @@
         <v>-119.63177</v>
       </c>
       <c r="K75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P75" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76">
         <v>2018</v>
       </c>
@@ -4265,7 +4280,7 @@
         <v>0.45624999999999999</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I76">
         <v>35.119489999999999</v>
@@ -4274,19 +4289,19 @@
         <v>-119.62909999999999</v>
       </c>
       <c r="K76" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -4309,7 +4324,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I77">
         <v>35.116700000000002</v>
@@ -4318,22 +4333,22 @@
         <v>-119.63509000000001</v>
       </c>
       <c r="K77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78">
         <v>2018</v>
       </c>
@@ -4356,7 +4371,7 @@
         <v>0.45347222222222222</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I78">
         <v>35.119790000000002</v>
@@ -4365,22 +4380,22 @@
         <v>-119.63592</v>
       </c>
       <c r="K78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P78" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79">
         <v>2018</v>
       </c>
@@ -4403,7 +4418,7 @@
         <v>0.52638888888888891</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I79">
         <v>35.120739999999998</v>
@@ -4412,19 +4427,19 @@
         <v>-119.62558</v>
       </c>
       <c r="K79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80">
         <v>2018</v>
       </c>
@@ -4447,7 +4462,7 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I80">
         <v>35.119129999999998</v>
@@ -4456,19 +4471,19 @@
         <v>-119.62969</v>
       </c>
       <c r="K80" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q80" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -4476,7 +4491,7 @@
         <v>2018</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81">
         <v>16</v>
@@ -4494,7 +4509,7 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I81">
         <v>35.118389999999998</v>
@@ -4503,19 +4518,19 @@
         <v>-119.62988</v>
       </c>
       <c r="K81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q81" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="R81" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -4541,7 +4556,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I82">
         <v>35.111519999999999</v>
@@ -4550,19 +4565,19 @@
         <v>-119.63247</v>
       </c>
       <c r="K82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q82" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -4588,7 +4603,7 @@
         <v>0.47291666666666665</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I83">
         <v>35.118070000000003</v>
@@ -4597,16 +4612,16 @@
         <v>-119.63209999999999</v>
       </c>
       <c r="K83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q83" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -4632,7 +4647,7 @@
         <v>0.53125</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I84">
         <v>35.120089999999998</v>
@@ -4641,19 +4656,19 @@
         <v>-119.62662</v>
       </c>
       <c r="K84" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q84" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -4679,7 +4694,7 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I85">
         <v>35.117629999999998</v>
@@ -4688,22 +4703,22 @@
         <v>-119.62437</v>
       </c>
       <c r="K85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N85" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P85" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q85" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -4729,7 +4744,7 @@
         <v>0.43333333333333335</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I86">
         <v>35.126049999999999</v>
@@ -4738,19 +4753,19 @@
         <v>-119.63728999999999</v>
       </c>
       <c r="K86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P86" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q86" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -4776,7 +4791,7 @@
         <v>0.44375000000000003</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I87">
         <v>35.124029999999998</v>
@@ -4785,19 +4800,19 @@
         <v>-119.63592</v>
       </c>
       <c r="K87" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q87" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -4823,7 +4838,7 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I88">
         <v>35.118020000000001</v>
@@ -4832,19 +4847,19 @@
         <v>-119.62656</v>
       </c>
       <c r="K88" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q88" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -4870,7 +4885,7 @@
         <v>0.47152777777777777</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I89">
         <v>35.115679999999998</v>
@@ -4879,19 +4894,19 @@
         <v>-119.62376</v>
       </c>
       <c r="K89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q89" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -4917,7 +4932,7 @@
         <v>0.55138888888888882</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I90">
         <v>35.120199999999997</v>
@@ -4926,16 +4941,16 @@
         <v>-119.62782</v>
       </c>
       <c r="K90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q90" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -4961,7 +4976,7 @@
         <v>0.44027777777777777</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I91">
         <v>35.124830000000003</v>
@@ -4970,19 +4985,19 @@
         <v>-119.63648999999999</v>
       </c>
       <c r="K91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P91" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q91" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5008,7 +5023,7 @@
         <v>0.47638888888888892</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I92">
         <v>35.117530000000002</v>
@@ -5017,18 +5032,15 @@
         <v>-119.62393</v>
       </c>
       <c r="K92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q92" t="s">
-        <v>12</v>
-      </c>
-      <c r="R92" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5055,7 +5067,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I93">
         <v>35.116390000000003</v>
@@ -5064,22 +5076,22 @@
         <v>-11962572</v>
       </c>
       <c r="K93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N93" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P93" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q93" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5105,7 +5117,7 @@
         <v>0.54791666666666672</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I94">
         <v>35.120829999999998</v>
@@ -5114,16 +5126,16 @@
         <v>-119.62916</v>
       </c>
       <c r="K94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q94" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -5149,7 +5161,7 @@
         <v>0.45902777777777781</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I95">
         <v>35.119599999999998</v>
@@ -5158,22 +5170,22 @@
         <v>-119.62126000000001</v>
       </c>
       <c r="K95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N95" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P95" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q95" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -5199,7 +5211,7 @@
         <v>0.51180555555555551</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I96">
         <v>35.118110000000001</v>
@@ -5208,19 +5220,19 @@
         <v>-119.62618999999999</v>
       </c>
       <c r="K96" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q96" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -5246,7 +5258,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I97">
         <v>35.118000000000002</v>
@@ -5255,19 +5267,19 @@
         <v>-119.62653</v>
       </c>
       <c r="K97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M97" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q97" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -5293,7 +5305,7 @@
         <v>0.47847222222222219</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I98">
         <v>35.116630000000001</v>
@@ -5302,19 +5314,19 @@
         <v>-119.63509999999999</v>
       </c>
       <c r="K98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M98" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P98" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q98" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -5340,7 +5352,7 @@
         <v>0.62777777777777777</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I99">
         <v>35.116590000000002</v>
@@ -5349,16 +5361,16 @@
         <v>-119.63564</v>
       </c>
       <c r="K99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q99" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -5384,7 +5396,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I100">
         <v>35.115290000000002</v>
@@ -5393,19 +5405,19 @@
         <v>-119.62491</v>
       </c>
       <c r="K100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M100" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q100" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -5431,7 +5443,7 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I101">
         <v>35.114960000000004</v>
@@ -5440,19 +5452,19 @@
         <v>-119.62461</v>
       </c>
       <c r="K101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M101" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P101" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q101" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -5478,7 +5490,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I102">
         <v>35.115349999999999</v>
@@ -5487,16 +5499,16 @@
         <v>-119.62415</v>
       </c>
       <c r="K102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L102" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q102" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -5522,7 +5534,7 @@
         <v>0.60972222222222217</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I103">
         <v>35.115180000000002</v>
@@ -5531,19 +5543,19 @@
         <v>-119.62376</v>
       </c>
       <c r="K103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M103" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P103" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q103" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -5569,7 +5581,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I104">
         <v>35.120179999999998</v>
@@ -5578,16 +5590,16 @@
         <v>-119.62508</v>
       </c>
       <c r="K104" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q104" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -5613,7 +5625,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I105">
         <v>35.120170000000002</v>
@@ -5622,16 +5634,16 @@
         <v>-119.02506</v>
       </c>
       <c r="K105" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L105" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q105" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -5657,7 +5669,7 @@
         <v>0.50069444444444444</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I106">
         <v>35.117130000000003</v>
@@ -5666,19 +5678,19 @@
         <v>-119.62759</v>
       </c>
       <c r="K106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M106" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q106" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -5704,7 +5716,7 @@
         <v>0.63124999999999998</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I107">
         <v>35.117100000000001</v>
@@ -5713,19 +5725,19 @@
         <v>-119.62755</v>
       </c>
       <c r="K107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q107" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -5751,7 +5763,7 @@
         <v>0.47500000000000003</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I108">
         <v>35.117840000000001</v>
@@ -5760,19 +5772,19 @@
         <v>-119.633461</v>
       </c>
       <c r="K108" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L108" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q108" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -5798,7 +5810,7 @@
         <v>0.62083333333333335</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I109">
         <v>35.111530000000002</v>
@@ -5807,19 +5819,19 @@
         <v>-119.63251</v>
       </c>
       <c r="K109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P109" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q109" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -5845,7 +5857,7 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I110">
         <v>35.115470000000002</v>
@@ -5854,19 +5866,19 @@
         <v>-119.61966</v>
       </c>
       <c r="K110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L110" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q110" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -5892,7 +5904,7 @@
         <v>0.58124999999999993</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I111">
         <v>35.115659999999998</v>
@@ -5901,22 +5913,22 @@
         <v>-119.62007</v>
       </c>
       <c r="K111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N111" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q111" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -5942,7 +5954,7 @@
         <v>0.48125000000000001</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I112">
         <v>35.117199999999997</v>
@@ -5951,16 +5963,16 @@
         <v>-119.63287</v>
       </c>
       <c r="K112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q112" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -5986,7 +5998,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I113">
         <v>35.117249999999999</v>
@@ -5995,19 +6007,19 @@
         <v>-119.63395</v>
       </c>
       <c r="K113" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P113" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q113" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -6033,7 +6045,7 @@
         <v>0.46388888888888885</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I114">
         <v>35.119759999999999</v>
@@ -6042,19 +6054,19 @@
         <v>-119.63087</v>
       </c>
       <c r="K114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P114" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q114" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -6080,7 +6092,7 @@
         <v>0.61388888888888882</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I115">
         <v>35.118189999999998</v>
@@ -6089,16 +6101,16 @@
         <v>-119.63144</v>
       </c>
       <c r="K115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L115" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q115" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -6124,7 +6136,7 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I116">
         <v>35.119329999999998</v>
@@ -6133,19 +6145,19 @@
         <v>-119.62895</v>
       </c>
       <c r="K116" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q116" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -6171,7 +6183,7 @@
         <v>0.60833333333333328</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I117">
         <v>35.119140000000002</v>
@@ -6180,19 +6192,19 @@
         <v>-119.6288</v>
       </c>
       <c r="K117" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q117" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -6218,7 +6230,7 @@
         <v>0.48333333333333334</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I118">
         <v>35.116669999999999</v>
@@ -6227,19 +6239,19 @@
         <v>-119.63507</v>
       </c>
       <c r="K118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P118" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q118" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -6265,7 +6277,7 @@
         <v>0.63055555555555554</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I119">
         <v>35.115960000000001</v>
@@ -6274,16 +6286,16 @@
         <v>-119.6357</v>
       </c>
       <c r="K119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L119" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q119" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -6309,7 +6321,7 @@
         <v>0.44513888888888892</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I120">
         <v>35.119889999999998</v>
@@ -6318,16 +6330,16 @@
         <v>-119.62867</v>
       </c>
       <c r="K120" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L120" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q120" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -6353,7 +6365,7 @@
         <v>0.59791666666666665</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I121">
         <v>35.11974</v>
@@ -6362,19 +6374,19 @@
         <v>-119.62748999999999</v>
       </c>
       <c r="K121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P121" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q121" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -6400,7 +6412,7 @@
         <v>0.5229166666666667</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I122">
         <v>35.211030000000001</v>
@@ -6409,19 +6421,19 @@
         <v>-119.62554</v>
       </c>
       <c r="K122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P122" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q122" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -6447,7 +6459,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I123">
         <v>35.12097</v>
@@ -6456,19 +6468,19 @@
         <v>-119.62537</v>
       </c>
       <c r="K123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P123" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q123" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -6494,7 +6506,7 @@
         <v>0.45694444444444443</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I124">
         <v>35.118670000000002</v>
@@ -6503,22 +6515,22 @@
         <v>-119.62897</v>
       </c>
       <c r="K124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N124" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P124" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q124" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -6544,7 +6556,7 @@
         <v>0.59097222222222223</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I125">
         <v>35.118850000000002</v>
@@ -6553,22 +6565,22 @@
         <v>-119.6294</v>
       </c>
       <c r="K125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N125" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P125" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q125" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -6576,7 +6588,7 @@
         <v>2018</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126">
         <v>16</v>
@@ -6594,7 +6606,7 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I126">
         <v>35.118360000000003</v>
@@ -6603,16 +6615,16 @@
         <v>-119.62962</v>
       </c>
       <c r="K126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q126" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -6620,7 +6632,7 @@
         <v>2018</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127">
         <v>16</v>
@@ -6638,7 +6650,7 @@
         <v>0.59305555555555556</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I127">
         <v>35.11853</v>
@@ -6647,22 +6659,22 @@
         <v>-119.62992</v>
       </c>
       <c r="K127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N127" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P127" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q127" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -6688,7 +6700,7 @@
         <v>0.50277777777777777</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I128">
         <v>35.11139</v>
@@ -6697,16 +6709,16 @@
         <v>-119.6328</v>
       </c>
       <c r="K128" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L128" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q128" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -6732,7 +6744,7 @@
         <v>0.64166666666666672</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I129">
         <v>35.112209999999997</v>
@@ -6741,16 +6753,16 @@
         <v>-119.63267999999999</v>
       </c>
       <c r="K129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q129" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -6776,7 +6788,7 @@
         <v>0.48680555555555555</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I130">
         <v>35.117890000000003</v>
@@ -6785,22 +6797,22 @@
         <v>-119.63287</v>
       </c>
       <c r="K130" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N130" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P130" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q130" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -6826,7 +6838,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I131">
         <v>35.117229999999999</v>
@@ -6835,19 +6847,19 @@
         <v>-119.63154</v>
       </c>
       <c r="K131" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q131" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -6873,7 +6885,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I132">
         <v>35.119680000000002</v>
@@ -6882,19 +6894,19 @@
         <v>-119.62641000000001</v>
       </c>
       <c r="K132" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q132" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -6920,7 +6932,7 @@
         <v>0.65625</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I133">
         <v>35.119929999999997</v>
@@ -6929,16 +6941,16 @@
         <v>-119.62679</v>
       </c>
       <c r="K133" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q133" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -6964,7 +6976,7 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I134">
         <v>35.117849999999997</v>
@@ -6973,19 +6985,19 @@
         <v>-119.62390000000001</v>
       </c>
       <c r="K134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q134" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -7011,7 +7023,7 @@
         <v>0.59791666666666665</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I135">
         <v>35.118009999999998</v>
@@ -7020,22 +7032,22 @@
         <v>-119.62421999999999</v>
       </c>
       <c r="K135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L135" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q135" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -7061,7 +7073,7 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I136">
         <v>35.125999999999998</v>
@@ -7070,16 +7082,16 @@
         <v>-119.63694</v>
       </c>
       <c r="K136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q136" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -7105,7 +7117,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I137">
         <v>35.125929999999997</v>
@@ -7114,19 +7126,19 @@
         <v>-119.63713</v>
       </c>
       <c r="K137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P137" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q137" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -7152,7 +7164,7 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I138">
         <v>35.124040000000001</v>
@@ -7161,16 +7173,16 @@
         <v>-119.63538</v>
       </c>
       <c r="K138" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P138" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q138" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -7196,7 +7208,7 @@
         <v>0.58124999999999993</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I139">
         <v>35.124009999999998</v>
@@ -7205,19 +7217,19 @@
         <v>-119.63575</v>
       </c>
       <c r="K139" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P139" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q139" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -7243,7 +7255,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I140">
         <v>35.118389999999998</v>
@@ -7252,16 +7264,16 @@
         <v>-119.62581</v>
       </c>
       <c r="K140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q140" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -7287,7 +7299,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I141">
         <v>35.117980000000003</v>
@@ -7296,16 +7308,16 @@
         <v>-119.62533000000001</v>
       </c>
       <c r="K141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L141" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q141" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -7331,7 +7343,7 @@
         <v>0.48055555555555557</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I142">
         <v>35.175669999999997</v>
@@ -7340,19 +7352,19 @@
         <v>-119.62389</v>
       </c>
       <c r="K142" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M142" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P142" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q142" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -7378,7 +7390,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I143">
         <v>35.115760000000002</v>
@@ -7387,22 +7399,22 @@
         <v>-119.6246</v>
       </c>
       <c r="K143" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M143" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N143" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P143" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q143" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -7428,7 +7440,7 @@
         <v>0.45416666666666666</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I144">
         <v>35.120240000000003</v>
@@ -7437,22 +7449,22 @@
         <v>-119.62756</v>
       </c>
       <c r="K144" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M144" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P144" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q144" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145">
         <v>2018</v>
       </c>
@@ -7475,7 +7487,7 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I145">
         <v>35.120429999999999</v>
@@ -7484,22 +7496,22 @@
         <v>-119.62791</v>
       </c>
       <c r="K145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M145" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P145" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q145" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146">
         <v>2018</v>
       </c>
@@ -7522,7 +7534,7 @@
         <v>0.43194444444444446</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I146">
         <v>35.125129999999999</v>
@@ -7531,22 +7543,22 @@
         <v>-119.63679999999999</v>
       </c>
       <c r="K146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L146" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M146" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P146" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q146" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147">
         <v>2018</v>
       </c>
@@ -7569,7 +7581,7 @@
         <v>0.57847222222222217</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I147">
         <v>35.125929999999997</v>
@@ -7578,22 +7590,22 @@
         <v>-119.63647</v>
       </c>
       <c r="K147" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M147" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P147" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q147" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148">
         <v>2018</v>
       </c>
@@ -7616,7 +7628,7 @@
         <v>0.47083333333333338</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I148">
         <v>35.117620000000002</v>
@@ -7625,22 +7637,25 @@
         <v>-119.63287</v>
       </c>
       <c r="K148" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L148" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M148" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q148" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17">
+        <v>59</v>
+      </c>
+      <c r="R148" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149">
         <v>2018</v>
       </c>
@@ -7663,7 +7678,7 @@
         <v>0.62361111111111112</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I149">
         <v>35.117609999999999</v>
@@ -7672,22 +7687,22 @@
         <v>-119.63346</v>
       </c>
       <c r="K149" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M149" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q149" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150">
         <v>2018</v>
       </c>
@@ -7710,7 +7725,7 @@
         <v>0.49374999999999997</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I150">
         <v>35.116500000000002</v>
@@ -7719,19 +7734,19 @@
         <v>-119.62589</v>
       </c>
       <c r="K150" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L150" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151">
         <v>2018</v>
       </c>
@@ -7754,7 +7769,7 @@
         <v>0.62708333333333333</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I151">
         <v>35.11647</v>
@@ -7763,22 +7778,22 @@
         <v>-119.62575</v>
       </c>
       <c r="K151" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M151" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152">
         <v>2018</v>
       </c>
@@ -7801,7 +7816,7 @@
         <v>0.45069444444444445</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I152">
         <v>35.120919999999998</v>
@@ -7810,22 +7825,22 @@
         <v>-119.62845</v>
       </c>
       <c r="K152" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L152" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M152" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q152" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153">
         <v>2018</v>
       </c>
@@ -7848,7 +7863,7 @@
         <v>0.60555555555555551</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I153">
         <v>35.119900000000001</v>
@@ -7857,25 +7872,25 @@
         <v>-119.62875</v>
       </c>
       <c r="K153" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M153" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N153" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q153" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154">
         <v>2018</v>
       </c>
@@ -7898,7 +7913,7 @@
         <v>0.46388888888888885</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I154">
         <v>35.119590000000002</v>
@@ -7907,19 +7922,22 @@
         <v>-119.62111</v>
       </c>
       <c r="K154" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
+        <v>55</v>
+      </c>
+      <c r="R154" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18">
       <c r="A155">
         <v>2018</v>
       </c>
@@ -7942,7 +7960,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I155">
         <v>35.119619999999998</v>
@@ -7951,21 +7969,1304 @@
         <v>-119.62126000000001</v>
       </c>
       <c r="K155" t="s">
+        <v>29</v>
+      </c>
+      <c r="L155" t="s">
+        <v>0</v>
+      </c>
+      <c r="P155" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18">
+      <c r="A156">
+        <v>2018</v>
+      </c>
+      <c r="B156">
+        <v>100</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>150.54900000000001</v>
+      </c>
+      <c r="E156">
+        <v>6</v>
+      </c>
+      <c r="F156" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I156">
+        <v>35.118160000000003</v>
+      </c>
+      <c r="J156">
+        <v>-119.62621</v>
+      </c>
+      <c r="K156" t="s">
         <v>33</v>
       </c>
-      <c r="L155" t="s">
-        <v>1</v>
-      </c>
-      <c r="P155" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q155" t="s">
+      <c r="L156" t="s">
+        <v>1</v>
+      </c>
+      <c r="M156" t="s">
+        <v>32</v>
+      </c>
+      <c r="P156" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18">
+      <c r="A157">
+        <v>2018</v>
+      </c>
+      <c r="B157">
+        <v>9</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>150.57</v>
+      </c>
+      <c r="E157">
+        <v>6</v>
+      </c>
+      <c r="F157" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157">
+        <v>35.116320000000002</v>
+      </c>
+      <c r="J157">
+        <v>-119.63464</v>
+      </c>
+      <c r="K157" t="s">
+        <v>29</v>
+      </c>
+      <c r="L157" t="s">
+        <v>0</v>
+      </c>
+      <c r="M157" t="s">
+        <v>36</v>
+      </c>
+      <c r="P157" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18">
+      <c r="A158">
+        <v>2018</v>
+      </c>
+      <c r="B158">
+        <v>99</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>150.60900000000001</v>
+      </c>
+      <c r="E158">
+        <v>6</v>
+      </c>
+      <c r="F158" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I158">
+        <v>35.114730000000002</v>
+      </c>
+      <c r="J158">
+        <v>-119.62437</v>
+      </c>
+      <c r="K158" t="s">
+        <v>33</v>
+      </c>
+      <c r="L158" t="s">
+        <v>1</v>
+      </c>
+      <c r="M158" t="s">
+        <v>36</v>
+      </c>
+      <c r="P158" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18">
+      <c r="A159">
+        <v>2018</v>
+      </c>
+      <c r="B159">
+        <v>80</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>150.63</v>
+      </c>
+      <c r="E159">
+        <v>6</v>
+      </c>
+      <c r="F159" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I159">
+        <v>35.115369999999999</v>
+      </c>
+      <c r="J159">
+        <v>-119.62408000000001</v>
+      </c>
+      <c r="K159" t="s">
+        <v>29</v>
+      </c>
+      <c r="L159" t="s">
+        <v>0</v>
+      </c>
+      <c r="M159" t="s">
+        <v>32</v>
+      </c>
+      <c r="P159" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18">
+      <c r="A160">
+        <v>2018</v>
+      </c>
+      <c r="B160">
+        <v>73</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160">
+        <v>150.66900000000001</v>
+      </c>
+      <c r="E160">
+        <v>6</v>
+      </c>
+      <c r="F160" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I160">
+        <v>35.120429999999999</v>
+      </c>
+      <c r="J160">
+        <v>-119.62541</v>
+      </c>
+      <c r="K160" t="s">
+        <v>33</v>
+      </c>
+      <c r="L160" t="s">
+        <v>1</v>
+      </c>
+      <c r="P160" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
+      <c r="A161">
+        <v>2018</v>
+      </c>
+      <c r="B161">
+        <v>44</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>150.75</v>
+      </c>
+      <c r="E161">
+        <v>6</v>
+      </c>
+      <c r="F161" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I161">
+        <v>35.1175</v>
+      </c>
+      <c r="J161">
+        <v>-119.62717000000001</v>
+      </c>
+      <c r="K161" t="s">
+        <v>29</v>
+      </c>
+      <c r="L161" t="s">
+        <v>1</v>
+      </c>
+      <c r="M161" t="s">
+        <v>32</v>
+      </c>
+      <c r="P161" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18">
+      <c r="A162">
+        <v>2018</v>
+      </c>
+      <c r="B162">
+        <v>30</v>
+      </c>
+      <c r="C162">
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>150.77000000000001</v>
+      </c>
+      <c r="E162">
+        <v>6</v>
+      </c>
+      <c r="F162" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I162">
+        <v>35.117809999999999</v>
+      </c>
+      <c r="J162">
+        <v>-119.63293</v>
+      </c>
+      <c r="K162" t="s">
+        <v>29</v>
+      </c>
+      <c r="L162" t="s">
+        <v>0</v>
+      </c>
+      <c r="P162" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
+      <c r="A163">
+        <v>2018</v>
+      </c>
+      <c r="B163">
+        <v>64</v>
+      </c>
+      <c r="C163">
+        <v>8</v>
+      </c>
+      <c r="D163">
+        <v>151.79</v>
+      </c>
+      <c r="E163">
+        <v>6</v>
+      </c>
+      <c r="F163" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I163">
+        <v>35.116129999999998</v>
+      </c>
+      <c r="J163">
+        <v>-119.61973</v>
+      </c>
+      <c r="K163" t="s">
+        <v>29</v>
+      </c>
+      <c r="L163" t="s">
+        <v>0</v>
+      </c>
+      <c r="P163" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18">
+      <c r="A164">
+        <v>2018</v>
+      </c>
+      <c r="B164">
+        <v>56</v>
+      </c>
+      <c r="C164">
+        <v>9</v>
+      </c>
+      <c r="D164">
+        <v>150.81</v>
+      </c>
+      <c r="E164">
+        <v>6</v>
+      </c>
+      <c r="F164" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I164">
+        <v>35.11712</v>
+      </c>
+      <c r="J164">
+        <v>-119.63428999999999</v>
+      </c>
+      <c r="K164" t="s">
+        <v>29</v>
+      </c>
+      <c r="L164" t="s">
+        <v>1</v>
+      </c>
+      <c r="P164" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18">
+      <c r="A165">
+        <v>2018</v>
+      </c>
+      <c r="B165">
+        <v>200</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>150.83000000000001</v>
+      </c>
+      <c r="E165">
+        <v>6</v>
+      </c>
+      <c r="F165" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I165">
+        <v>35.11815</v>
+      </c>
+      <c r="J165">
+        <v>-119.63175</v>
+      </c>
+      <c r="K165" t="s">
+        <v>29</v>
+      </c>
+      <c r="L165" t="s">
+        <v>1</v>
+      </c>
+      <c r="P165" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18">
+      <c r="A166">
+        <v>2018</v>
+      </c>
+      <c r="B166">
+        <v>20</v>
+      </c>
+      <c r="C166">
+        <v>11</v>
+      </c>
+      <c r="D166">
+        <v>151</v>
+      </c>
+      <c r="E166">
+        <v>6</v>
+      </c>
+      <c r="F166" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I166">
+        <v>35.119349999999997</v>
+      </c>
+      <c r="J166">
+        <v>-119.62911</v>
+      </c>
+      <c r="K166" t="s">
+        <v>29</v>
+      </c>
+      <c r="L166" t="s">
+        <v>1</v>
+      </c>
+      <c r="M166" t="s">
+        <v>58</v>
+      </c>
+      <c r="P166" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>55</v>
+      </c>
+      <c r="R166" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
+      <c r="A167">
+        <v>2018</v>
+      </c>
+      <c r="B167">
+        <v>176</v>
+      </c>
+      <c r="C167">
+        <v>12</v>
+      </c>
+      <c r="D167">
+        <v>151.029</v>
+      </c>
+      <c r="E167">
+        <v>6</v>
+      </c>
+      <c r="F167" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I167">
+        <v>35.115499999999997</v>
+      </c>
+      <c r="J167">
+        <v>-119.63506</v>
+      </c>
+      <c r="K167" t="s">
+        <v>29</v>
+      </c>
+      <c r="L167" t="s">
+        <v>1</v>
+      </c>
+      <c r="M167" t="s">
+        <v>32</v>
+      </c>
+      <c r="P167" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
+      <c r="A168">
+        <v>2018</v>
+      </c>
+      <c r="B168">
+        <v>19</v>
+      </c>
+      <c r="C168">
         <v>13</v>
       </c>
+      <c r="D168">
+        <v>151.04900000000001</v>
+      </c>
+      <c r="E168">
+        <v>6</v>
+      </c>
+      <c r="F168" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I168">
+        <v>35.119219999999999</v>
+      </c>
+      <c r="J168">
+        <v>-119.62878000000001</v>
+      </c>
+      <c r="K168" t="s">
+        <v>29</v>
+      </c>
+      <c r="L168" t="s">
+        <v>1</v>
+      </c>
+      <c r="M168" t="s">
+        <v>7</v>
+      </c>
+      <c r="P168" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
+      <c r="A169">
+        <v>2018</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>14</v>
+      </c>
+      <c r="D169">
+        <v>151.089</v>
+      </c>
+      <c r="E169">
+        <v>6</v>
+      </c>
+      <c r="F169" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I169">
+        <v>35.121009999999998</v>
+      </c>
+      <c r="J169">
+        <v>-119.62537</v>
+      </c>
+      <c r="K169" t="s">
+        <v>29</v>
+      </c>
+      <c r="L169" t="s">
+        <v>1</v>
+      </c>
+      <c r="M169" t="s">
+        <v>46</v>
+      </c>
+      <c r="P169" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18">
+      <c r="A170">
+        <v>2018</v>
+      </c>
+      <c r="B170">
+        <v>12</v>
+      </c>
+      <c r="C170">
+        <v>15</v>
+      </c>
+      <c r="D170">
+        <v>151.11000000000001</v>
+      </c>
+      <c r="E170">
+        <v>6</v>
+      </c>
+      <c r="F170" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G170" s="2">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I170">
+        <v>35.119160000000001</v>
+      </c>
+      <c r="J170">
+        <v>-119.63034</v>
+      </c>
+      <c r="K170" t="s">
+        <v>29</v>
+      </c>
+      <c r="L170" t="s">
+        <v>0</v>
+      </c>
+      <c r="P170" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18">
+      <c r="A171">
+        <v>2018</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>16</v>
+      </c>
+      <c r="D171">
+        <v>151.11000000000001</v>
+      </c>
+      <c r="E171">
+        <v>6</v>
+      </c>
+      <c r="F171" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I171">
+        <v>35.118459999999999</v>
+      </c>
+      <c r="J171">
+        <v>-119.62911</v>
+      </c>
+      <c r="K171" t="s">
+        <v>33</v>
+      </c>
+      <c r="L171" t="s">
+        <v>1</v>
+      </c>
+      <c r="P171" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18">
+      <c r="A172">
+        <v>2018</v>
+      </c>
+      <c r="B172">
+        <v>40</v>
+      </c>
+      <c r="C172">
+        <v>17</v>
+      </c>
+      <c r="D172">
+        <v>151.209</v>
+      </c>
+      <c r="E172">
+        <v>6</v>
+      </c>
+      <c r="F172" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I172">
+        <v>35.112169999999999</v>
+      </c>
+      <c r="J172">
+        <v>-119.63323</v>
+      </c>
+      <c r="K172" t="s">
+        <v>29</v>
+      </c>
+      <c r="L172" t="s">
+        <v>1</v>
+      </c>
+      <c r="P172" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18">
+      <c r="A173">
+        <v>2018</v>
+      </c>
+      <c r="B173">
+        <v>35</v>
+      </c>
+      <c r="C173">
+        <v>18</v>
+      </c>
+      <c r="D173">
+        <v>151.22999999999999</v>
+      </c>
+      <c r="E173">
+        <v>6</v>
+      </c>
+      <c r="F173" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G173" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I173">
+        <v>35.117959999999997</v>
+      </c>
+      <c r="J173">
+        <v>-119.63205000000001</v>
+      </c>
+      <c r="K173" t="s">
+        <v>29</v>
+      </c>
+      <c r="L173" t="s">
+        <v>1</v>
+      </c>
+      <c r="P173" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
+      <c r="A174">
+        <v>2018</v>
+      </c>
+      <c r="B174">
+        <v>93</v>
+      </c>
+      <c r="C174">
+        <v>19</v>
+      </c>
+      <c r="D174">
+        <v>151.29</v>
+      </c>
+      <c r="E174">
+        <v>6</v>
+      </c>
+      <c r="F174" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I174">
+        <v>35.119799999999998</v>
+      </c>
+      <c r="J174">
+        <v>-119.62702</v>
+      </c>
+      <c r="K174" t="s">
+        <v>33</v>
+      </c>
+      <c r="L174" t="s">
+        <v>1</v>
+      </c>
+      <c r="M174" t="s">
+        <v>35</v>
+      </c>
+      <c r="P174" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
+      <c r="A175">
+        <v>2018</v>
+      </c>
+      <c r="B175">
+        <v>91</v>
+      </c>
+      <c r="C175">
+        <v>20</v>
+      </c>
+      <c r="D175">
+        <v>151.37</v>
+      </c>
+      <c r="E175">
+        <v>6</v>
+      </c>
+      <c r="F175" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I175">
+        <v>35.117930000000001</v>
+      </c>
+      <c r="J175">
+        <v>-119.62384</v>
+      </c>
+      <c r="K175" t="s">
+        <v>33</v>
+      </c>
+      <c r="L175" t="s">
+        <v>1</v>
+      </c>
+      <c r="M175" t="s">
+        <v>35</v>
+      </c>
+      <c r="P175" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
+      <c r="A176">
+        <v>2018</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>21</v>
+      </c>
+      <c r="D176">
+        <v>151.43</v>
+      </c>
+      <c r="E176">
+        <v>6</v>
+      </c>
+      <c r="F176" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I176">
+        <v>35.12697</v>
+      </c>
+      <c r="J176">
+        <v>-119.63715000000001</v>
+      </c>
+      <c r="K176" t="s">
+        <v>29</v>
+      </c>
+      <c r="L176" t="s">
+        <v>0</v>
+      </c>
+      <c r="P176" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
+      <c r="A177">
+        <v>2018</v>
+      </c>
+      <c r="B177">
+        <v>11</v>
+      </c>
+      <c r="C177">
+        <v>22</v>
+      </c>
+      <c r="D177">
+        <v>151.47</v>
+      </c>
+      <c r="E177">
+        <v>6</v>
+      </c>
+      <c r="F177" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G177" s="2">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I177">
+        <v>35.123869999999997</v>
+      </c>
+      <c r="J177">
+        <v>-119.63569</v>
+      </c>
+      <c r="K177" t="s">
+        <v>33</v>
+      </c>
+      <c r="L177" t="s">
+        <v>1</v>
+      </c>
+      <c r="P177" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
+      <c r="A178">
+        <v>2018</v>
+      </c>
+      <c r="B178">
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <v>23</v>
+      </c>
+      <c r="D178">
+        <v>151.59</v>
+      </c>
+      <c r="E178">
+        <v>6</v>
+      </c>
+      <c r="F178" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G178" s="2">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I178">
+        <v>35.11786</v>
+      </c>
+      <c r="J178">
+        <v>-119.6255</v>
+      </c>
+      <c r="K178" t="s">
+        <v>29</v>
+      </c>
+      <c r="L178" t="s">
+        <v>1</v>
+      </c>
+      <c r="M178" t="s">
+        <v>35</v>
+      </c>
+      <c r="P178" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18">
+      <c r="A179">
+        <v>2018</v>
+      </c>
+      <c r="B179">
+        <v>13</v>
+      </c>
+      <c r="C179">
+        <v>24</v>
+      </c>
+      <c r="D179">
+        <v>151.61000000000001</v>
+      </c>
+      <c r="E179">
+        <v>6</v>
+      </c>
+      <c r="F179" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G179" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I179">
+        <v>35.115380000000002</v>
+      </c>
+      <c r="J179">
+        <v>-119.6241</v>
+      </c>
+      <c r="K179" t="s">
+        <v>29</v>
+      </c>
+      <c r="L179" t="s">
+        <v>0</v>
+      </c>
+      <c r="P179" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18">
+      <c r="A180">
+        <v>2018</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>26</v>
+      </c>
+      <c r="D180">
+        <v>151.809</v>
+      </c>
+      <c r="E180">
+        <v>6</v>
+      </c>
+      <c r="F180" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G180" s="2">
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I180">
+        <v>35.124830000000003</v>
+      </c>
+      <c r="J180">
+        <v>-119.63646</v>
+      </c>
+      <c r="K180" t="s">
+        <v>29</v>
+      </c>
+      <c r="L180" t="s">
+        <v>1</v>
+      </c>
+      <c r="M180" t="s">
+        <v>32</v>
+      </c>
+      <c r="P180" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18">
+      <c r="A181">
+        <v>2018</v>
+      </c>
+      <c r="B181">
+        <v>22</v>
+      </c>
+      <c r="C181">
+        <v>27</v>
+      </c>
+      <c r="D181">
+        <v>151.83000000000001</v>
+      </c>
+      <c r="E181">
+        <v>6</v>
+      </c>
+      <c r="F181" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G181" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I181">
+        <v>35.1175</v>
+      </c>
+      <c r="J181">
+        <v>-119.63317000000001</v>
+      </c>
+      <c r="K181" t="s">
+        <v>33</v>
+      </c>
+      <c r="L181" t="s">
+        <v>1</v>
+      </c>
+      <c r="M181" t="s">
+        <v>36</v>
+      </c>
+      <c r="P181" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18">
+      <c r="A182">
+        <v>2018</v>
+      </c>
+      <c r="B182">
+        <v>39</v>
+      </c>
+      <c r="C182">
+        <v>28</v>
+      </c>
+      <c r="D182">
+        <v>151.84899999999999</v>
+      </c>
+      <c r="E182">
+        <v>6</v>
+      </c>
+      <c r="F182" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G182" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I182">
+        <v>35.116570000000003</v>
+      </c>
+      <c r="J182">
+        <v>-119.62603</v>
+      </c>
+      <c r="K182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L182" t="s">
+        <v>1</v>
+      </c>
+      <c r="P182" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
+      <c r="A183">
+        <v>2018</v>
+      </c>
+      <c r="B183">
+        <v>1337</v>
+      </c>
+      <c r="C183">
+        <v>30</v>
+      </c>
+      <c r="D183">
+        <v>151.96899999999999</v>
+      </c>
+      <c r="E183">
+        <v>6</v>
+      </c>
+      <c r="F183" s="1">
+        <v>43233</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I183">
+        <v>35.119660000000003</v>
+      </c>
+      <c r="J183">
+        <v>-11962083</v>
+      </c>
+      <c r="K183" t="s">
+        <v>29</v>
+      </c>
+      <c r="L183" t="s">
+        <v>1</v>
+      </c>
+      <c r="M183" t="s">
+        <v>35</v>
+      </c>
+      <c r="P183" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>55</v>
+      </c>
+      <c r="R183" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:R155">
-    <sortCondition ref="F2:F155"/>
+  <sortState ref="A2:R183">
+    <sortCondition ref="E2:E183"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/Carrizo_telemetry_2018.xlsx
+++ b/data/Carrizo_telemetry_2018.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="72">
   <si>
     <t>shrub</t>
   </si>
@@ -168,12 +168,6 @@
     <t>1M from shrub</t>
   </si>
   <si>
-    <t>Lizard 130 had invalid as well (On may 6th)</t>
-  </si>
-  <si>
-    <t>Lizard 47 (Freq order 25 was missed)</t>
-  </si>
-  <si>
     <t>First location as first day</t>
   </si>
   <si>
@@ -216,10 +210,31 @@
     <t>May 13 lizard 47 and 130 missed</t>
   </si>
   <si>
-    <t>12B is missing at this point in time</t>
+    <t>Lizard 47 Freq order 25 was missed</t>
   </si>
   <si>
-    <t>Birds nest in shrub</t>
+    <t>Lizard 130 had invalid as well On may 6th</t>
+  </si>
+  <si>
+    <t>Note 12B is missing at this point in time</t>
+  </si>
+  <si>
+    <t>Note Birds nest in shrub</t>
+  </si>
+  <si>
+    <t>pulseinterval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standing </t>
+  </si>
+  <si>
+    <t>observing</t>
+  </si>
+  <si>
+    <t>There was an error with the numbering of 1337 and 130 it has been edited</t>
+  </si>
+  <si>
+    <t>a category for pulseinterval has been added</t>
   </si>
   <si>
     <t>This one was hunting a grasshopper</t>
@@ -278,8 +293,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -361,7 +378,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -399,6 +416,7 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -436,6 +454,7 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -711,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R183"/>
+  <dimension ref="A1:S212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R82" sqref="R82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S79" sqref="S79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -733,12 +752,13 @@
     <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="61.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -752,7 +772,7 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -785,16 +805,19 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -834,15 +857,15 @@
       <c r="M2" t="s">
         <v>0</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="R2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -882,15 +905,15 @@
       <c r="M3" t="s">
         <v>0</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="R3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -930,15 +953,15 @@
       <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="P4" t="s">
-        <v>5</v>
-      </c>
       <c r="Q4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -981,15 +1004,15 @@
       <c r="N5" t="s">
         <v>35</v>
       </c>
-      <c r="P5" t="s">
-        <v>5</v>
-      </c>
       <c r="Q5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -1029,15 +1052,15 @@
       <c r="M6" t="s">
         <v>32</v>
       </c>
-      <c r="P6" t="s">
-        <v>5</v>
-      </c>
       <c r="Q6" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -1077,14 +1100,14 @@
       <c r="M7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" t="s">
-        <v>5</v>
-      </c>
       <c r="Q7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -1121,17 +1144,17 @@
       <c r="L8" t="s">
         <v>1</v>
       </c>
-      <c r="P8" t="s">
-        <v>5</v>
-      </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>59</v>
+      </c>
+      <c r="S8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -1168,14 +1191,14 @@
       <c r="L9" t="s">
         <v>0</v>
       </c>
-      <c r="P9" t="s">
-        <v>5</v>
-      </c>
       <c r="Q9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -1212,14 +1235,14 @@
       <c r="L10" t="s">
         <v>1</v>
       </c>
-      <c r="P10" t="s">
-        <v>5</v>
-      </c>
       <c r="Q10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -1256,14 +1279,14 @@
       <c r="L11" t="s">
         <v>1</v>
       </c>
-      <c r="P11" t="s">
-        <v>5</v>
-      </c>
       <c r="Q11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -1300,14 +1323,14 @@
       <c r="L12" t="s">
         <v>1</v>
       </c>
-      <c r="P12" t="s">
-        <v>5</v>
-      </c>
       <c r="Q12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -1347,14 +1370,14 @@
       <c r="M13" t="s">
         <v>32</v>
       </c>
-      <c r="P13" t="s">
-        <v>5</v>
-      </c>
       <c r="Q13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -1397,14 +1420,14 @@
       <c r="N14" t="s">
         <v>36</v>
       </c>
-      <c r="P14" t="s">
-        <v>5</v>
-      </c>
       <c r="Q14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -1444,14 +1467,14 @@
       <c r="M15" t="s">
         <v>32</v>
       </c>
-      <c r="P15" t="s">
-        <v>5</v>
-      </c>
       <c r="Q15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -1491,14 +1514,14 @@
       <c r="M16" t="s">
         <v>3</v>
       </c>
-      <c r="P16" t="s">
-        <v>5</v>
-      </c>
       <c r="Q16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -1538,14 +1561,14 @@
       <c r="M17" t="s">
         <v>36</v>
       </c>
-      <c r="P17" t="s">
-        <v>5</v>
-      </c>
       <c r="Q17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -1582,14 +1605,14 @@
       <c r="L18" t="s">
         <v>1</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="R18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -1626,14 +1649,14 @@
       <c r="L19" t="s">
         <v>0</v>
       </c>
-      <c r="P19" t="s">
-        <v>5</v>
-      </c>
       <c r="Q19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1673,14 +1696,14 @@
       <c r="M20" t="s">
         <v>0</v>
       </c>
-      <c r="P20" t="s">
-        <v>5</v>
-      </c>
       <c r="Q20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1720,14 +1743,14 @@
       <c r="M21" t="s">
         <v>32</v>
       </c>
-      <c r="P21" t="s">
-        <v>5</v>
-      </c>
       <c r="Q21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1767,14 +1790,14 @@
       <c r="M22" t="s">
         <v>32</v>
       </c>
-      <c r="P22" t="s">
-        <v>5</v>
-      </c>
       <c r="Q22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1817,14 +1840,14 @@
       <c r="N23" t="s">
         <v>36</v>
       </c>
-      <c r="P23" t="s">
-        <v>5</v>
-      </c>
       <c r="Q23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1864,14 +1887,14 @@
       <c r="M24" t="s">
         <v>32</v>
       </c>
-      <c r="P24" t="s">
-        <v>5</v>
-      </c>
       <c r="Q24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1908,14 +1931,14 @@
       <c r="L25" t="s">
         <v>1</v>
       </c>
-      <c r="P25" t="s">
-        <v>5</v>
-      </c>
       <c r="Q25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1952,14 +1975,14 @@
       <c r="L26" t="s">
         <v>1</v>
       </c>
-      <c r="P26" t="s">
-        <v>5</v>
-      </c>
       <c r="Q26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1996,14 +2019,14 @@
       <c r="L27" t="s">
         <v>1</v>
       </c>
-      <c r="P27" t="s">
-        <v>5</v>
-      </c>
       <c r="Q27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -2040,14 +2063,14 @@
       <c r="L28" t="s">
         <v>1</v>
       </c>
-      <c r="P28" t="s">
-        <v>5</v>
-      </c>
       <c r="Q28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2087,14 +2110,14 @@
       <c r="M29" t="s">
         <v>32</v>
       </c>
-      <c r="P29" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2134,17 +2157,17 @@
       <c r="M30" t="s">
         <v>0</v>
       </c>
-      <c r="P30" t="s">
-        <v>5</v>
-      </c>
       <c r="Q30" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="R30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>59</v>
+      </c>
+      <c r="S30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -2184,14 +2207,14 @@
       <c r="M31" t="s">
         <v>2</v>
       </c>
-      <c r="P31" t="s">
-        <v>5</v>
-      </c>
       <c r="Q31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -2228,15 +2251,15 @@
       <c r="L32" t="s">
         <v>1</v>
       </c>
-      <c r="P32" t="s">
-        <v>5</v>
-      </c>
       <c r="Q32" t="s">
-        <v>61</v>
-      </c>
-      <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s">
+        <v>59</v>
+      </c>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2276,14 +2299,14 @@
       <c r="M33" t="s">
         <v>32</v>
       </c>
-      <c r="P33" t="s">
-        <v>5</v>
-      </c>
       <c r="Q33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2323,19 +2346,19 @@
       <c r="M34" t="s">
         <v>32</v>
       </c>
-      <c r="P34" t="s">
-        <v>5</v>
-      </c>
       <c r="Q34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>2018</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>1337</v>
       </c>
       <c r="C35">
         <v>29</v>
@@ -2370,19 +2393,19 @@
       <c r="M35" t="s">
         <v>32</v>
       </c>
-      <c r="P35" t="s">
-        <v>5</v>
-      </c>
       <c r="Q35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>2018</v>
       </c>
       <c r="B36">
-        <v>1337</v>
+        <v>130</v>
       </c>
       <c r="C36">
         <v>30</v>
@@ -2414,14 +2437,14 @@
       <c r="L36" t="s">
         <v>0</v>
       </c>
-      <c r="P36" t="s">
-        <v>5</v>
-      </c>
       <c r="Q36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2461,14 +2484,14 @@
       <c r="M37" t="s">
         <v>32</v>
       </c>
-      <c r="P37" t="s">
-        <v>5</v>
-      </c>
       <c r="Q37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2505,14 +2528,14 @@
       <c r="L38" t="s">
         <v>0</v>
       </c>
-      <c r="P38" t="s">
-        <v>5</v>
-      </c>
       <c r="Q38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2552,17 +2575,17 @@
       <c r="M39" t="s">
         <v>33</v>
       </c>
-      <c r="P39" t="s">
-        <v>5</v>
-      </c>
       <c r="Q39" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="R39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>53</v>
+      </c>
+      <c r="S39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2602,14 +2625,14 @@
       <c r="M40" t="s">
         <v>10</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>37</v>
       </c>
-      <c r="Q40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="R40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2652,14 +2675,14 @@
       <c r="N41" t="s">
         <v>11</v>
       </c>
-      <c r="P41" t="s">
-        <v>5</v>
-      </c>
       <c r="Q41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2702,14 +2725,14 @@
       <c r="N42" t="s">
         <v>41</v>
       </c>
-      <c r="P42" t="s">
-        <v>5</v>
-      </c>
       <c r="Q42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2749,25 +2772,25 @@
       <c r="M43" t="s">
         <v>35</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>37</v>
       </c>
-      <c r="Q43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="R43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>2018</v>
       </c>
       <c r="B44">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44">
-        <v>151.79</v>
+        <v>150.81</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2776,16 +2799,16 @@
         <v>43228</v>
       </c>
       <c r="G44" s="2">
-        <v>0.63263888888888886</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I44">
-        <v>35.116210000000002</v>
+        <v>35.1175</v>
       </c>
       <c r="J44">
-        <v>-119.61999</v>
+        <v>-119.63663</v>
       </c>
       <c r="K44" t="s">
         <v>29</v>
@@ -2794,27 +2817,30 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P44" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="Q44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>37</v>
+      </c>
+      <c r="R44" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>2018</v>
       </c>
       <c r="B45">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>150.81</v>
+        <v>150.83000000000001</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -2823,16 +2849,16 @@
         <v>43228</v>
       </c>
       <c r="G45" s="2">
-        <v>0.49583333333333335</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I45">
-        <v>35.1175</v>
+        <v>35.118340000000003</v>
       </c>
       <c r="J45">
-        <v>-119.63663</v>
+        <v>-119.63204</v>
       </c>
       <c r="K45" t="s">
         <v>29</v>
@@ -2841,30 +2867,27 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>36</v>
-      </c>
-      <c r="P45" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" t="s">
         <v>37</v>
       </c>
-      <c r="Q45" t="s">
-        <v>59</v>
-      </c>
       <c r="R45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46">
         <v>2018</v>
       </c>
       <c r="B46">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>150.83000000000001</v>
+        <v>151</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2873,16 +2896,16 @@
         <v>43228</v>
       </c>
       <c r="G46" s="2">
-        <v>0.52152777777777781</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I46">
-        <v>35.118340000000003</v>
+        <v>35.119810000000001</v>
       </c>
       <c r="J46">
-        <v>-119.63204</v>
+        <v>-119.62855999999999</v>
       </c>
       <c r="K46" t="s">
         <v>29</v>
@@ -2891,27 +2914,27 @@
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>32</v>
-      </c>
-      <c r="P46" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q46" t="s">
         <v>37</v>
       </c>
-      <c r="Q46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="R46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>2018</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47">
-        <v>151</v>
+        <v>151.029</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2920,45 +2943,45 @@
         <v>43228</v>
       </c>
       <c r="G47" s="2">
-        <v>0.5444444444444444</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I47">
-        <v>35.119810000000001</v>
+        <v>35.116549999999997</v>
       </c>
       <c r="J47">
-        <v>-119.62855999999999</v>
+        <v>-119.63594999999999</v>
       </c>
       <c r="K47" t="s">
         <v>29</v>
       </c>
       <c r="L47" t="s">
-        <v>1</v>
-      </c>
-      <c r="M47" t="s">
-        <v>9</v>
-      </c>
-      <c r="P47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
         <v>37</v>
       </c>
-      <c r="Q47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="R47" t="s">
+        <v>57</v>
+      </c>
+      <c r="S47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>2018</v>
       </c>
       <c r="B48">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>151.029</v>
+        <v>151.04900000000001</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2967,45 +2990,42 @@
         <v>43228</v>
       </c>
       <c r="G48" s="2">
-        <v>0.50138888888888888</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I48">
-        <v>35.116549999999997</v>
+        <v>35.119430000000001</v>
       </c>
       <c r="J48">
-        <v>-119.63594999999999</v>
+        <v>-119.62945999999999</v>
       </c>
       <c r="K48" t="s">
         <v>29</v>
       </c>
       <c r="L48" t="s">
-        <v>0</v>
-      </c>
-      <c r="P48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s">
         <v>37</v>
       </c>
-      <c r="Q48" t="s">
-        <v>59</v>
-      </c>
       <c r="R48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>2018</v>
       </c>
       <c r="B49">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>151.04900000000001</v>
+        <v>151.089</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3014,16 +3034,16 @@
         <v>43228</v>
       </c>
       <c r="G49" s="2">
-        <v>0.54861111111111105</v>
+        <v>0.59375</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I49">
-        <v>35.119430000000001</v>
+        <v>35.120829999999998</v>
       </c>
       <c r="J49">
-        <v>-119.62945999999999</v>
+        <v>-119.62513</v>
       </c>
       <c r="K49" t="s">
         <v>29</v>
@@ -3031,25 +3051,28 @@
       <c r="L49" t="s">
         <v>1</v>
       </c>
-      <c r="P49" t="s">
+      <c r="M49" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" t="s">
         <v>37</v>
       </c>
-      <c r="Q49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="R49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>2018</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>151.089</v>
+        <v>151.11000000000001</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -3058,16 +3081,16 @@
         <v>43228</v>
       </c>
       <c r="G50" s="2">
-        <v>0.59375</v>
+        <v>0.55694444444444446</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I50">
-        <v>35.120829999999998</v>
+        <v>35.119050000000001</v>
       </c>
       <c r="J50">
-        <v>-119.62513</v>
+        <v>-119.63043</v>
       </c>
       <c r="K50" t="s">
         <v>29</v>
@@ -3076,27 +3099,27 @@
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q50" t="s">
         <v>37</v>
       </c>
-      <c r="Q50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="R50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>2018</v>
       </c>
-      <c r="B51">
-        <v>12</v>
+      <c r="B51" t="s">
+        <v>6</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>151.11000000000001</v>
+        <v>151.15</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3105,45 +3128,42 @@
         <v>43228</v>
       </c>
       <c r="G51" s="2">
-        <v>0.55694444444444446</v>
+        <v>0.53888888888888886</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I51">
-        <v>35.119050000000001</v>
+        <v>35.118110000000001</v>
       </c>
       <c r="J51">
-        <v>-119.63043</v>
+        <v>-119.62936000000001</v>
       </c>
       <c r="K51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L51" t="s">
-        <v>1</v>
-      </c>
-      <c r="M51" t="s">
-        <v>9</v>
-      </c>
-      <c r="P51" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>2018</v>
       </c>
-      <c r="B52" t="s">
-        <v>6</v>
+      <c r="B52">
+        <v>40</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>151.15</v>
+        <v>151.209</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -3152,42 +3172,45 @@
         <v>43228</v>
       </c>
       <c r="G52" s="2">
-        <v>0.53888888888888886</v>
+        <v>0.56805555555555554</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I52">
-        <v>35.118110000000001</v>
+        <v>35.112209999999997</v>
       </c>
       <c r="J52">
-        <v>-119.62936000000001</v>
+        <v>-119.63293</v>
       </c>
       <c r="K52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L52" t="s">
-        <v>0</v>
-      </c>
-      <c r="P52" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>37</v>
+      </c>
+      <c r="R52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>2018</v>
       </c>
       <c r="B53">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>151.209</v>
+        <v>151.22999999999999</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -3196,16 +3219,16 @@
         <v>43228</v>
       </c>
       <c r="G53" s="2">
-        <v>0.56805555555555554</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I53">
-        <v>35.112209999999997</v>
+        <v>35.118079999999999</v>
       </c>
       <c r="J53">
-        <v>-119.63293</v>
+        <v>-119.6326</v>
       </c>
       <c r="K53" t="s">
         <v>29</v>
@@ -3214,27 +3237,27 @@
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>8</v>
-      </c>
-      <c r="P53" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q53" t="s">
         <v>37</v>
       </c>
-      <c r="Q53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="R53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>2018</v>
       </c>
       <c r="B54">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>151.22999999999999</v>
+        <v>151.29</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -3243,16 +3266,16 @@
         <v>43228</v>
       </c>
       <c r="G54" s="2">
-        <v>0.52500000000000002</v>
+        <v>0.64861111111111114</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I54">
-        <v>35.118079999999999</v>
+        <v>35.120530000000002</v>
       </c>
       <c r="J54">
-        <v>-119.6326</v>
+        <v>-119.62569000000001</v>
       </c>
       <c r="K54" t="s">
         <v>29</v>
@@ -3261,27 +3284,27 @@
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>35</v>
-      </c>
-      <c r="P54" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q54" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55">
         <v>2018</v>
       </c>
       <c r="B55">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C55">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>151.29</v>
+        <v>151.37</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -3290,45 +3313,48 @@
         <v>43228</v>
       </c>
       <c r="G55" s="2">
-        <v>0.64861111111111114</v>
+        <v>0.5131944444444444</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I55">
-        <v>35.120530000000002</v>
+        <v>35.117719999999998</v>
       </c>
       <c r="J55">
-        <v>-119.62569000000001</v>
+        <v>-119.62737</v>
       </c>
       <c r="K55" t="s">
         <v>29</v>
       </c>
       <c r="L55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>33</v>
-      </c>
-      <c r="P55" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="Q55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s">
+        <v>53</v>
+      </c>
+      <c r="S55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56">
         <v>2018</v>
       </c>
       <c r="B56">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D56">
-        <v>151.37</v>
+        <v>151.43</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -3337,48 +3363,42 @@
         <v>43228</v>
       </c>
       <c r="G56" s="2">
-        <v>0.5131944444444444</v>
+        <v>0.46388888888888885</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I56">
-        <v>35.117719999999998</v>
+        <v>35.126660000000001</v>
       </c>
       <c r="J56">
-        <v>-119.62737</v>
+        <v>-119.63724999999999</v>
       </c>
       <c r="K56" t="s">
         <v>29</v>
       </c>
       <c r="L56" t="s">
-        <v>0</v>
-      </c>
-      <c r="M56" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="R56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57">
         <v>2018</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C57">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57">
-        <v>151.43</v>
+        <v>151.47</v>
       </c>
       <c r="E57">
         <v>3</v>
@@ -3387,42 +3407,45 @@
         <v>43228</v>
       </c>
       <c r="G57" s="2">
-        <v>0.46388888888888885</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I57">
-        <v>35.126660000000001</v>
+        <v>35.124049999999997</v>
       </c>
       <c r="J57">
-        <v>-119.63724999999999</v>
+        <v>-119.63673</v>
       </c>
       <c r="K57" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L57" t="s">
         <v>1</v>
       </c>
-      <c r="P57" t="s">
-        <v>37</v>
+      <c r="M57" t="s">
+        <v>36</v>
       </c>
       <c r="Q57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>2018</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C58">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D58">
-        <v>151.47</v>
+        <v>151.59</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -3431,45 +3454,45 @@
         <v>43228</v>
       </c>
       <c r="G58" s="2">
-        <v>0.4777777777777778</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I58">
-        <v>35.124049999999997</v>
+        <v>35.117930000000001</v>
       </c>
       <c r="J58">
-        <v>-119.63673</v>
+        <v>-119.62604</v>
       </c>
       <c r="K58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L58" t="s">
         <v>1</v>
       </c>
-      <c r="M58" t="s">
-        <v>36</v>
-      </c>
-      <c r="P58" t="s">
-        <v>5</v>
+      <c r="M58" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="Q58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>37</v>
+      </c>
+      <c r="R58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>2018</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D59">
-        <v>151.59</v>
+        <v>151.61000000000001</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -3478,45 +3501,45 @@
         <v>43228</v>
       </c>
       <c r="G59" s="2">
-        <v>0.57638888888888895</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I59">
-        <v>35.117930000000001</v>
+        <v>35.115729999999999</v>
       </c>
       <c r="J59">
-        <v>-119.62604</v>
+        <v>-119.62421000000001</v>
       </c>
       <c r="K59" t="s">
         <v>29</v>
       </c>
       <c r="L59" t="s">
-        <v>1</v>
-      </c>
-      <c r="M59" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P59" t="s">
-        <v>37</v>
+      <c r="M59" t="s">
+        <v>32</v>
       </c>
       <c r="Q59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>2018</v>
       </c>
       <c r="B60">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D60">
-        <v>151.61000000000001</v>
+        <v>151.79</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -3525,34 +3548,34 @@
         <v>43228</v>
       </c>
       <c r="G60" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I60">
-        <v>35.115729999999999</v>
+        <v>35.116210000000002</v>
       </c>
       <c r="J60">
-        <v>-119.62421000000001</v>
+        <v>-119.61999</v>
       </c>
       <c r="K60" t="s">
         <v>29</v>
       </c>
       <c r="L60" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="s">
         <v>32</v>
       </c>
-      <c r="P60" t="s">
-        <v>5</v>
-      </c>
       <c r="Q60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -3589,14 +3612,14 @@
       <c r="L61" t="s">
         <v>1</v>
       </c>
-      <c r="P61" t="s">
-        <v>5</v>
-      </c>
       <c r="Q61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3636,14 +3659,14 @@
       <c r="M62" t="s">
         <v>7</v>
       </c>
-      <c r="P62" t="s">
-        <v>5</v>
-      </c>
       <c r="Q62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3686,19 +3709,19 @@
       <c r="N63" t="s">
         <v>35</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>37</v>
       </c>
-      <c r="Q63" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="R63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64">
         <v>2018</v>
       </c>
       <c r="B64">
-        <v>130</v>
+        <v>1337</v>
       </c>
       <c r="C64">
         <v>29</v>
@@ -3733,19 +3756,19 @@
       <c r="M64" t="s">
         <v>32</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>37</v>
       </c>
-      <c r="Q64" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65">
         <v>2018</v>
       </c>
       <c r="B65">
-        <v>1337</v>
+        <v>130</v>
       </c>
       <c r="C65">
         <v>30</v>
@@ -3777,14 +3800,17 @@
       <c r="L65" t="s">
         <v>1</v>
       </c>
-      <c r="P65" t="s">
-        <v>5</v>
-      </c>
       <c r="Q65" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s">
+        <v>53</v>
+      </c>
+      <c r="S65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3824,14 +3850,14 @@
       <c r="M66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P66" t="s">
-        <v>5</v>
-      </c>
       <c r="Q66" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -3871,14 +3897,14 @@
       <c r="M67" t="s">
         <v>0</v>
       </c>
-      <c r="P67" t="s">
-        <v>5</v>
-      </c>
       <c r="Q67" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -3921,14 +3947,14 @@
       <c r="N68" t="s">
         <v>32</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>37</v>
       </c>
-      <c r="Q68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -3968,14 +3994,14 @@
       <c r="M69" t="s">
         <v>0</v>
       </c>
-      <c r="P69" t="s">
-        <v>5</v>
-      </c>
       <c r="Q69" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -4015,14 +4041,14 @@
       <c r="M70" t="s">
         <v>32</v>
       </c>
-      <c r="P70" t="s">
-        <v>5</v>
-      </c>
       <c r="Q70" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -4065,14 +4091,14 @@
       <c r="N71" t="s">
         <v>32</v>
       </c>
-      <c r="P71" t="s">
-        <v>5</v>
-      </c>
       <c r="Q71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -4109,25 +4135,25 @@
       <c r="L72" t="s">
         <v>1</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>37</v>
       </c>
-      <c r="Q72" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73">
         <v>2018</v>
       </c>
       <c r="B73">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73">
-        <v>151.79</v>
+        <v>150.81</v>
       </c>
       <c r="E73">
         <v>4</v>
@@ -4136,16 +4162,16 @@
         <v>43230</v>
       </c>
       <c r="G73" s="2">
-        <v>0.4458333333333333</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I73">
-        <v>35.115960000000001</v>
+        <v>35.117469999999997</v>
       </c>
       <c r="J73">
-        <v>-119.61955</v>
+        <v>-119.63404</v>
       </c>
       <c r="K73" t="s">
         <v>29</v>
@@ -4153,31 +4179,25 @@
       <c r="L73" t="s">
         <v>1</v>
       </c>
-      <c r="M73" t="s">
-        <v>0</v>
-      </c>
-      <c r="N73" t="s">
-        <v>0</v>
-      </c>
-      <c r="P73" t="s">
-        <v>40</v>
-      </c>
       <c r="Q73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74">
         <v>2018</v>
       </c>
       <c r="B74">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="C74">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74">
-        <v>150.81</v>
+        <v>150.83000000000001</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -4186,16 +4206,16 @@
         <v>43230</v>
       </c>
       <c r="G74" s="2">
-        <v>0.49305555555555558</v>
+        <v>0.4694444444444445</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I74">
-        <v>35.117469999999997</v>
+        <v>35.118160000000003</v>
       </c>
       <c r="J74">
-        <v>-119.63404</v>
+        <v>-119.63177</v>
       </c>
       <c r="K74" t="s">
         <v>29</v>
@@ -4203,25 +4223,28 @@
       <c r="L74" t="s">
         <v>1</v>
       </c>
-      <c r="P74" t="s">
+      <c r="M74" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" t="s">
         <v>37</v>
       </c>
-      <c r="Q74" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75">
         <v>2018</v>
       </c>
       <c r="B75">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75">
-        <v>150.83000000000001</v>
+        <v>151</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -4230,45 +4253,42 @@
         <v>43230</v>
       </c>
       <c r="G75" s="2">
-        <v>0.4694444444444445</v>
+        <v>0.45624999999999999</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I75">
-        <v>35.118160000000003</v>
+        <v>35.119489999999999</v>
       </c>
       <c r="J75">
-        <v>-119.63177</v>
+        <v>-119.62909999999999</v>
       </c>
       <c r="K75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L75" t="s">
         <v>1</v>
       </c>
-      <c r="M75" t="s">
-        <v>32</v>
-      </c>
-      <c r="P75" t="s">
-        <v>37</v>
-      </c>
       <c r="Q75" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76">
         <v>2018</v>
       </c>
       <c r="B76">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="C76">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76">
-        <v>151</v>
+        <v>151.029</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -4277,42 +4297,45 @@
         <v>43230</v>
       </c>
       <c r="G76" s="2">
-        <v>0.45624999999999999</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I76">
-        <v>35.119489999999999</v>
+        <v>35.116700000000002</v>
       </c>
       <c r="J76">
-        <v>-119.62909999999999</v>
+        <v>-119.63509000000001</v>
       </c>
       <c r="K76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L76" t="s">
-        <v>1</v>
-      </c>
-      <c r="P76" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>0</v>
       </c>
       <c r="Q76" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77">
         <v>2018</v>
       </c>
       <c r="B77">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="C77">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77">
-        <v>151.029</v>
+        <v>151.04900000000001</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -4321,45 +4344,45 @@
         <v>43230</v>
       </c>
       <c r="G77" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I77">
-        <v>35.116700000000002</v>
+        <v>35.119790000000002</v>
       </c>
       <c r="J77">
-        <v>-119.63509000000001</v>
+        <v>-119.63592</v>
       </c>
       <c r="K77" t="s">
         <v>29</v>
       </c>
       <c r="L77" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>0</v>
-      </c>
-      <c r="P77" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="Q77" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78">
         <v>2018</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78">
-        <v>151.04900000000001</v>
+        <v>151.089</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -4368,16 +4391,16 @@
         <v>43230</v>
       </c>
       <c r="G78" s="2">
-        <v>0.45347222222222222</v>
+        <v>0.52638888888888891</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I78">
-        <v>35.119790000000002</v>
+        <v>35.120739999999998</v>
       </c>
       <c r="J78">
-        <v>-119.63592</v>
+        <v>-119.62558</v>
       </c>
       <c r="K78" t="s">
         <v>29</v>
@@ -4385,28 +4408,25 @@
       <c r="L78" t="s">
         <v>1</v>
       </c>
-      <c r="M78" t="s">
-        <v>32</v>
-      </c>
-      <c r="P78" t="s">
-        <v>37</v>
-      </c>
       <c r="Q78" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R78" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79">
         <v>2018</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79">
-        <v>151.089</v>
+        <v>151.11000000000001</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -4415,16 +4435,16 @@
         <v>43230</v>
       </c>
       <c r="G79" s="2">
-        <v>0.52638888888888891</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I79">
-        <v>35.120739999999998</v>
+        <v>35.119129999999998</v>
       </c>
       <c r="J79">
-        <v>-119.62558</v>
+        <v>-119.62969</v>
       </c>
       <c r="K79" t="s">
         <v>29</v>
@@ -4432,22 +4452,25 @@
       <c r="L79" t="s">
         <v>1</v>
       </c>
-      <c r="P79" t="s">
-        <v>5</v>
+      <c r="M79" t="s">
+        <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80">
         <v>2018</v>
       </c>
-      <c r="B80">
-        <v>12</v>
+      <c r="B80" t="s">
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D80">
         <v>151.11000000000001</v>
@@ -4459,16 +4482,16 @@
         <v>43230</v>
       </c>
       <c r="G80" s="2">
-        <v>0.46180555555555558</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I80">
-        <v>35.119129999999998</v>
+        <v>35.118389999999998</v>
       </c>
       <c r="J80">
-        <v>-119.62969</v>
+        <v>-119.62988</v>
       </c>
       <c r="K80" t="s">
         <v>29</v>
@@ -4476,28 +4499,28 @@
       <c r="L80" t="s">
         <v>1</v>
       </c>
-      <c r="M80" t="s">
-        <v>0</v>
-      </c>
-      <c r="P80" t="s">
-        <v>37</v>
-      </c>
       <c r="Q80" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="R80" t="s">
+        <v>57</v>
+      </c>
+      <c r="S80" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:18">
       <c r="A81">
         <v>2018</v>
       </c>
-      <c r="B81" t="s">
-        <v>6</v>
+      <c r="B81">
+        <v>40</v>
       </c>
       <c r="C81">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D81">
-        <v>151.11000000000001</v>
+        <v>151.209</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -4506,31 +4529,31 @@
         <v>43230</v>
       </c>
       <c r="G81" s="2">
-        <v>0.50138888888888888</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I81">
-        <v>35.118389999999998</v>
+        <v>35.111519999999999</v>
       </c>
       <c r="J81">
-        <v>-119.62988</v>
+        <v>-119.63247</v>
       </c>
       <c r="K81" t="s">
         <v>29</v>
       </c>
       <c r="L81" t="s">
-        <v>1</v>
-      </c>
-      <c r="P81" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>0</v>
       </c>
       <c r="Q81" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="R81" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -4538,13 +4561,13 @@
         <v>2018</v>
       </c>
       <c r="B82">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C82">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>151.209</v>
+        <v>151.22999999999999</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -4553,31 +4576,28 @@
         <v>43230</v>
       </c>
       <c r="G82" s="2">
-        <v>0.51388888888888895</v>
+        <v>0.47291666666666665</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I82">
-        <v>35.111519999999999</v>
+        <v>35.118070000000003</v>
       </c>
       <c r="J82">
-        <v>-119.63247</v>
+        <v>-119.63209999999999</v>
       </c>
       <c r="K82" t="s">
         <v>29</v>
       </c>
       <c r="L82" t="s">
-        <v>0</v>
-      </c>
-      <c r="M82" t="s">
-        <v>0</v>
-      </c>
-      <c r="P82" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q82" t="s">
-        <v>59</v>
+        <v>37</v>
+      </c>
+      <c r="R82" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -4585,13 +4605,13 @@
         <v>2018</v>
       </c>
       <c r="B83">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83">
-        <v>151.22999999999999</v>
+        <v>151.29</v>
       </c>
       <c r="E83">
         <v>4</v>
@@ -4600,28 +4620,31 @@
         <v>43230</v>
       </c>
       <c r="G83" s="2">
-        <v>0.47291666666666665</v>
+        <v>0.53125</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I83">
-        <v>35.118070000000003</v>
+        <v>35.120089999999998</v>
       </c>
       <c r="J83">
-        <v>-119.63209999999999</v>
+        <v>-119.62662</v>
       </c>
       <c r="K83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L83" t="s">
         <v>1</v>
       </c>
-      <c r="P83" t="s">
-        <v>37</v>
+      <c r="M83" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="Q83" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="R83" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -4629,13 +4652,13 @@
         <v>2018</v>
       </c>
       <c r="B84">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C84">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D84">
-        <v>151.29</v>
+        <v>151.37</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -4644,31 +4667,34 @@
         <v>43230</v>
       </c>
       <c r="G84" s="2">
-        <v>0.53125</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I84">
-        <v>35.120089999999998</v>
+        <v>35.117629999999998</v>
       </c>
       <c r="J84">
-        <v>-119.62662</v>
+        <v>-119.62437</v>
       </c>
       <c r="K84" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L84" t="s">
         <v>1</v>
       </c>
-      <c r="M84" s="3" t="s">
+      <c r="M84" t="s">
+        <v>35</v>
+      </c>
+      <c r="N84" t="s">
         <v>32</v>
       </c>
-      <c r="P84" t="s">
-        <v>5</v>
-      </c>
       <c r="Q84" t="s">
-        <v>55</v>
+        <v>37</v>
+      </c>
+      <c r="R84" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -4676,13 +4702,13 @@
         <v>2018</v>
       </c>
       <c r="B85">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D85">
-        <v>151.37</v>
+        <v>151.43</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -4691,16 +4717,16 @@
         <v>43230</v>
       </c>
       <c r="G85" s="2">
-        <v>0.4861111111111111</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I85">
-        <v>35.117629999999998</v>
+        <v>35.126049999999999</v>
       </c>
       <c r="J85">
-        <v>-119.62437</v>
+        <v>-119.63728999999999</v>
       </c>
       <c r="K85" t="s">
         <v>29</v>
@@ -4709,16 +4735,13 @@
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>35</v>
-      </c>
-      <c r="N85" t="s">
         <v>32</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>37</v>
       </c>
-      <c r="Q85" t="s">
-        <v>55</v>
+      <c r="R85" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -4726,13 +4749,13 @@
         <v>2018</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C86">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D86">
-        <v>151.43</v>
+        <v>151.47</v>
       </c>
       <c r="E86">
         <v>4</v>
@@ -4741,19 +4764,19 @@
         <v>43230</v>
       </c>
       <c r="G86" s="2">
-        <v>0.43333333333333335</v>
+        <v>0.44375000000000003</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I86">
-        <v>35.126049999999999</v>
+        <v>35.124029999999998</v>
       </c>
       <c r="J86">
-        <v>-119.63728999999999</v>
+        <v>-119.63592</v>
       </c>
       <c r="K86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L86" t="s">
         <v>1</v>
@@ -4761,11 +4784,11 @@
       <c r="M86" t="s">
         <v>32</v>
       </c>
-      <c r="P86" t="s">
-        <v>37</v>
-      </c>
       <c r="Q86" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="R86" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -4773,13 +4796,13 @@
         <v>2018</v>
       </c>
       <c r="B87">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C87">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>151.47</v>
+        <v>151.59</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -4788,16 +4811,16 @@
         <v>43230</v>
       </c>
       <c r="G87" s="2">
-        <v>0.44375000000000003</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I87">
-        <v>35.124029999999998</v>
+        <v>35.118020000000001</v>
       </c>
       <c r="J87">
-        <v>-119.63592</v>
+        <v>-119.62656</v>
       </c>
       <c r="K87" t="s">
         <v>33</v>
@@ -4805,14 +4828,14 @@
       <c r="L87" t="s">
         <v>1</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P87" t="s">
-        <v>5</v>
-      </c>
       <c r="Q87" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="R87" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -4820,13 +4843,13 @@
         <v>2018</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C88">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D88">
-        <v>151.59</v>
+        <v>151.61000000000001</v>
       </c>
       <c r="E88">
         <v>4</v>
@@ -4835,31 +4858,31 @@
         <v>43230</v>
       </c>
       <c r="G88" s="2">
-        <v>0.53749999999999998</v>
+        <v>0.47152777777777777</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I88">
-        <v>35.118020000000001</v>
+        <v>35.115679999999998</v>
       </c>
       <c r="J88">
-        <v>-119.62656</v>
+        <v>-119.62376</v>
       </c>
       <c r="K88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L88" t="s">
-        <v>1</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P88" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>0</v>
       </c>
       <c r="Q88" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="R88" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -4867,13 +4890,13 @@
         <v>2018</v>
       </c>
       <c r="B89">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C89">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D89">
-        <v>151.61000000000001</v>
+        <v>151.649</v>
       </c>
       <c r="E89">
         <v>4</v>
@@ -4882,16 +4905,16 @@
         <v>43230</v>
       </c>
       <c r="G89" s="2">
-        <v>0.47152777777777777</v>
+        <v>0.55138888888888882</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I89">
-        <v>35.115679999999998</v>
+        <v>35.120199999999997</v>
       </c>
       <c r="J89">
-        <v>-119.62376</v>
+        <v>-119.62782</v>
       </c>
       <c r="K89" t="s">
         <v>29</v>
@@ -4899,14 +4922,11 @@
       <c r="L89" t="s">
         <v>0</v>
       </c>
-      <c r="M89" t="s">
-        <v>0</v>
-      </c>
-      <c r="P89" t="s">
-        <v>5</v>
-      </c>
       <c r="Q89" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="R89" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -4914,13 +4934,13 @@
         <v>2018</v>
       </c>
       <c r="B90">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C90">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D90">
-        <v>151.649</v>
+        <v>151.79</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -4929,28 +4949,34 @@
         <v>43230</v>
       </c>
       <c r="G90" s="2">
-        <v>0.55138888888888882</v>
+        <v>0.4458333333333333</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I90">
-        <v>35.120199999999997</v>
+        <v>35.115960000000001</v>
       </c>
       <c r="J90">
-        <v>-119.62782</v>
+        <v>-119.61955</v>
       </c>
       <c r="K90" t="s">
         <v>29</v>
       </c>
       <c r="L90" t="s">
+        <v>1</v>
+      </c>
+      <c r="M90" t="s">
         <v>0</v>
       </c>
-      <c r="P90" t="s">
-        <v>5</v>
+      <c r="N90" t="s">
+        <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="R90" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -4993,11 +5019,11 @@
       <c r="M91" t="s">
         <v>32</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>37</v>
       </c>
-      <c r="Q91" t="s">
-        <v>59</v>
+      <c r="R91" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5037,11 +5063,11 @@
       <c r="L92" t="s">
         <v>1</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>37</v>
       </c>
-      <c r="Q92" t="s">
-        <v>59</v>
+      <c r="R92" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5087,11 +5113,11 @@
       <c r="N93" t="s">
         <v>32</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
         <v>37</v>
       </c>
-      <c r="Q93" t="s">
-        <v>55</v>
+      <c r="R93" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5099,7 +5125,7 @@
         <v>2018</v>
       </c>
       <c r="B94">
-        <v>130</v>
+        <v>1337</v>
       </c>
       <c r="C94">
         <v>29</v>
@@ -5131,11 +5157,11 @@
       <c r="L94" t="s">
         <v>0</v>
       </c>
-      <c r="P94" t="s">
-        <v>5</v>
-      </c>
       <c r="Q94" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="R94" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -5143,7 +5169,7 @@
         <v>2018</v>
       </c>
       <c r="B95">
-        <v>1337</v>
+        <v>130</v>
       </c>
       <c r="C95">
         <v>30</v>
@@ -5181,11 +5207,11 @@
       <c r="N95" t="s">
         <v>32</v>
       </c>
-      <c r="P95" t="s">
+      <c r="Q95" t="s">
         <v>37</v>
       </c>
-      <c r="Q95" t="s">
-        <v>55</v>
+      <c r="R95" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -5228,14 +5254,14 @@
       <c r="M96" t="s">
         <v>35</v>
       </c>
-      <c r="P96" t="s">
-        <v>5</v>
-      </c>
       <c r="Q96" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97">
         <v>2018</v>
       </c>
@@ -5275,14 +5301,14 @@
       <c r="M97" t="s">
         <v>32</v>
       </c>
-      <c r="P97" t="s">
-        <v>5</v>
-      </c>
       <c r="Q97" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R97" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98">
         <v>2018</v>
       </c>
@@ -5322,14 +5348,14 @@
       <c r="M98" t="s">
         <v>10</v>
       </c>
-      <c r="P98" t="s">
+      <c r="Q98" t="s">
         <v>37</v>
       </c>
-      <c r="Q98" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="R98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99">
         <v>2018</v>
       </c>
@@ -5366,14 +5392,14 @@
       <c r="L99" t="s">
         <v>0</v>
       </c>
-      <c r="P99" t="s">
-        <v>5</v>
-      </c>
       <c r="Q99" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100">
         <v>2018</v>
       </c>
@@ -5413,14 +5439,14 @@
       <c r="M100" t="s">
         <v>32</v>
       </c>
-      <c r="P100" t="s">
-        <v>5</v>
-      </c>
       <c r="Q100" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R100" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101">
         <v>2018</v>
       </c>
@@ -5460,14 +5486,14 @@
       <c r="M101" t="s">
         <v>32</v>
       </c>
-      <c r="P101" t="s">
+      <c r="Q101" t="s">
         <v>37</v>
       </c>
-      <c r="Q101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
+      <c r="R101" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102">
         <v>2018</v>
       </c>
@@ -5504,14 +5530,14 @@
       <c r="L102" t="s">
         <v>0</v>
       </c>
-      <c r="P102" t="s">
-        <v>5</v>
-      </c>
       <c r="Q102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103">
         <v>2018</v>
       </c>
@@ -5551,14 +5577,14 @@
       <c r="M103" t="s">
         <v>35</v>
       </c>
-      <c r="P103" t="s">
+      <c r="Q103" t="s">
         <v>37</v>
       </c>
-      <c r="Q103" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
+      <c r="R103" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104">
         <v>2018</v>
       </c>
@@ -5595,14 +5621,14 @@
       <c r="L104" t="s">
         <v>1</v>
       </c>
-      <c r="P104" t="s">
-        <v>5</v>
-      </c>
       <c r="Q104" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105">
         <v>2018</v>
       </c>
@@ -5639,14 +5665,14 @@
       <c r="L105" t="s">
         <v>42</v>
       </c>
-      <c r="P105" t="s">
-        <v>5</v>
-      </c>
       <c r="Q105" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106">
         <v>2018</v>
       </c>
@@ -5686,14 +5712,14 @@
       <c r="M106" t="s">
         <v>32</v>
       </c>
-      <c r="P106" t="s">
-        <v>5</v>
-      </c>
       <c r="Q106" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R106" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107">
         <v>2018</v>
       </c>
@@ -5733,14 +5759,14 @@
       <c r="M107" t="s">
         <v>32</v>
       </c>
-      <c r="P107" t="s">
-        <v>5</v>
-      </c>
       <c r="Q107" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108">
         <v>2018</v>
       </c>
@@ -5780,14 +5806,14 @@
       <c r="M108" t="s">
         <v>32</v>
       </c>
-      <c r="P108" t="s">
-        <v>5</v>
-      </c>
       <c r="Q108" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109">
         <v>2018</v>
       </c>
@@ -5827,25 +5853,25 @@
       <c r="M109" t="s">
         <v>4</v>
       </c>
-      <c r="P109" t="s">
+      <c r="Q109" t="s">
         <v>37</v>
       </c>
-      <c r="Q109" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="R109" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110">
         <v>2018</v>
       </c>
       <c r="B110">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C110">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110">
-        <v>151.79</v>
+        <v>150.81</v>
       </c>
       <c r="E110">
         <v>5</v>
@@ -5854,45 +5880,42 @@
         <v>43232</v>
       </c>
       <c r="G110" s="2">
-        <v>0.45208333333333334</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I110">
-        <v>35.115470000000002</v>
+        <v>35.117199999999997</v>
       </c>
       <c r="J110">
-        <v>-119.61966</v>
+        <v>-119.63287</v>
       </c>
       <c r="K110" t="s">
         <v>29</v>
       </c>
       <c r="L110" t="s">
-        <v>0</v>
-      </c>
-      <c r="M110" t="s">
-        <v>35</v>
-      </c>
-      <c r="P110" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q110" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R110" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111">
         <v>2018</v>
       </c>
       <c r="B111">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C111">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111">
-        <v>151.79</v>
+        <v>150.81</v>
       </c>
       <c r="E111">
         <v>5</v>
@@ -5901,16 +5924,16 @@
         <v>43232</v>
       </c>
       <c r="G111" s="2">
-        <v>0.58124999999999993</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I111">
-        <v>35.115659999999998</v>
+        <v>35.117249999999999</v>
       </c>
       <c r="J111">
-        <v>-119.62007</v>
+        <v>-119.63395</v>
       </c>
       <c r="K111" t="s">
         <v>29</v>
@@ -5919,30 +5942,27 @@
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>35</v>
-      </c>
-      <c r="N111" t="s">
-        <v>46</v>
-      </c>
-      <c r="P111" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q111" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112">
         <v>2018</v>
       </c>
       <c r="B112">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="C112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112">
-        <v>150.81</v>
+        <v>150.83000000000001</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -5951,16 +5971,16 @@
         <v>43232</v>
       </c>
       <c r="G112" s="2">
-        <v>0.48125000000000001</v>
+        <v>0.46388888888888885</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I112">
-        <v>35.117199999999997</v>
+        <v>35.119759999999999</v>
       </c>
       <c r="J112">
-        <v>-119.63287</v>
+        <v>-119.63087</v>
       </c>
       <c r="K112" t="s">
         <v>29</v>
@@ -5968,25 +5988,28 @@
       <c r="L112" t="s">
         <v>1</v>
       </c>
-      <c r="P112" t="s">
+      <c r="M112" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q112" t="s">
         <v>37</v>
       </c>
-      <c r="Q112" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17">
+      <c r="R112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113">
         <v>2018</v>
       </c>
       <c r="B113">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="C113">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113">
-        <v>150.81</v>
+        <v>150.83000000000001</v>
       </c>
       <c r="E113">
         <v>5</v>
@@ -5995,45 +6018,42 @@
         <v>43232</v>
       </c>
       <c r="G113" s="2">
-        <v>0.6333333333333333</v>
+        <v>0.61388888888888882</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I113">
-        <v>35.117249999999999</v>
+        <v>35.118189999999998</v>
       </c>
       <c r="J113">
-        <v>-119.63395</v>
+        <v>-119.63144</v>
       </c>
       <c r="K113" t="s">
         <v>29</v>
       </c>
       <c r="L113" t="s">
-        <v>1</v>
-      </c>
-      <c r="M113" t="s">
-        <v>10</v>
-      </c>
-      <c r="P113" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Q113" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R113" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114">
         <v>2018</v>
       </c>
       <c r="B114">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D114">
-        <v>150.83000000000001</v>
+        <v>151</v>
       </c>
       <c r="E114">
         <v>5</v>
@@ -6042,19 +6062,19 @@
         <v>43232</v>
       </c>
       <c r="G114" s="2">
-        <v>0.46388888888888885</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I114">
-        <v>35.119759999999999</v>
+        <v>35.119329999999998</v>
       </c>
       <c r="J114">
-        <v>-119.63087</v>
+        <v>-119.62895</v>
       </c>
       <c r="K114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L114" t="s">
         <v>1</v>
@@ -6062,25 +6082,25 @@
       <c r="M114" t="s">
         <v>32</v>
       </c>
-      <c r="P114" t="s">
-        <v>37</v>
-      </c>
       <c r="Q114" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R114" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115">
         <v>2018</v>
       </c>
       <c r="B115">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C115">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D115">
-        <v>150.83000000000001</v>
+        <v>151</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -6089,42 +6109,45 @@
         <v>43232</v>
       </c>
       <c r="G115" s="2">
-        <v>0.61388888888888882</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I115">
-        <v>35.118189999999998</v>
+        <v>35.119140000000002</v>
       </c>
       <c r="J115">
-        <v>-119.63144</v>
+        <v>-119.6288</v>
       </c>
       <c r="K115" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L115" t="s">
-        <v>0</v>
-      </c>
-      <c r="P115" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="M115" t="s">
+        <v>32</v>
       </c>
       <c r="Q115" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R115" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116">
         <v>2018</v>
       </c>
       <c r="B116">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="C116">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116">
-        <v>151</v>
+        <v>151.029</v>
       </c>
       <c r="E116">
         <v>5</v>
@@ -6133,45 +6156,45 @@
         <v>43232</v>
       </c>
       <c r="G116" s="2">
-        <v>0.4548611111111111</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I116">
-        <v>35.119329999999998</v>
+        <v>35.116669999999999</v>
       </c>
       <c r="J116">
-        <v>-119.62895</v>
+        <v>-119.63507</v>
       </c>
       <c r="K116" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L116" t="s">
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>32</v>
-      </c>
-      <c r="P116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q116" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R116" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117">
         <v>2018</v>
       </c>
       <c r="B117">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="C117">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117">
-        <v>151</v>
+        <v>151.029</v>
       </c>
       <c r="E117">
         <v>5</v>
@@ -6180,45 +6203,42 @@
         <v>43232</v>
       </c>
       <c r="G117" s="2">
-        <v>0.60833333333333328</v>
+        <v>0.63055555555555554</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I117">
-        <v>35.119140000000002</v>
+        <v>35.115960000000001</v>
       </c>
       <c r="J117">
-        <v>-119.6288</v>
+        <v>-119.6357</v>
       </c>
       <c r="K117" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L117" t="s">
-        <v>1</v>
-      </c>
-      <c r="M117" t="s">
-        <v>32</v>
-      </c>
-      <c r="P117" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q117" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R117" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118">
         <v>2018</v>
       </c>
       <c r="B118">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="C118">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D118">
-        <v>151.029</v>
+        <v>151.04900000000001</v>
       </c>
       <c r="E118">
         <v>5</v>
@@ -6227,45 +6247,42 @@
         <v>43232</v>
       </c>
       <c r="G118" s="2">
-        <v>0.48333333333333334</v>
+        <v>0.44513888888888892</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I118">
-        <v>35.116669999999999</v>
+        <v>35.119889999999998</v>
       </c>
       <c r="J118">
-        <v>-119.63507</v>
+        <v>-119.62867</v>
       </c>
       <c r="K118" t="s">
         <v>29</v>
       </c>
       <c r="L118" t="s">
-        <v>1</v>
-      </c>
-      <c r="M118" t="s">
-        <v>4</v>
-      </c>
-      <c r="P118" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Q118" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119">
         <v>2018</v>
       </c>
       <c r="B119">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="C119">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D119">
-        <v>151.029</v>
+        <v>151.04900000000001</v>
       </c>
       <c r="E119">
         <v>5</v>
@@ -6274,42 +6291,45 @@
         <v>43232</v>
       </c>
       <c r="G119" s="2">
-        <v>0.63055555555555554</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I119">
-        <v>35.115960000000001</v>
+        <v>35.11974</v>
       </c>
       <c r="J119">
-        <v>-119.6357</v>
+        <v>-119.62748999999999</v>
       </c>
       <c r="K119" t="s">
         <v>29</v>
       </c>
       <c r="L119" t="s">
-        <v>0</v>
-      </c>
-      <c r="P119" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="M119" t="s">
+        <v>32</v>
       </c>
       <c r="Q119" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R119" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120">
         <v>2018</v>
       </c>
       <c r="B120">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D120">
-        <v>151.04900000000001</v>
+        <v>151.089</v>
       </c>
       <c r="E120">
         <v>5</v>
@@ -6318,42 +6338,45 @@
         <v>43232</v>
       </c>
       <c r="G120" s="2">
-        <v>0.44513888888888892</v>
+        <v>0.5229166666666667</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I120">
-        <v>35.119889999999998</v>
+        <v>35.211030000000001</v>
       </c>
       <c r="J120">
-        <v>-119.62867</v>
+        <v>-119.62554</v>
       </c>
       <c r="K120" t="s">
         <v>29</v>
       </c>
       <c r="L120" t="s">
-        <v>0</v>
-      </c>
-      <c r="P120" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="M120" t="s">
+        <v>32</v>
       </c>
       <c r="Q120" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R120" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121">
         <v>2018</v>
       </c>
       <c r="B121">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C121">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D121">
-        <v>151.04900000000001</v>
+        <v>151.089</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -6362,16 +6385,16 @@
         <v>43232</v>
       </c>
       <c r="G121" s="2">
-        <v>0.59791666666666665</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I121">
-        <v>35.11974</v>
+        <v>35.12097</v>
       </c>
       <c r="J121">
-        <v>-119.62748999999999</v>
+        <v>-119.62537</v>
       </c>
       <c r="K121" t="s">
         <v>29</v>
@@ -6380,27 +6403,27 @@
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>32</v>
-      </c>
-      <c r="P121" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q121" t="s">
         <v>37</v>
       </c>
-      <c r="Q121" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17">
+      <c r="R121" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122">
         <v>2018</v>
       </c>
       <c r="B122">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D122">
-        <v>151.089</v>
+        <v>151.11000000000001</v>
       </c>
       <c r="E122">
         <v>5</v>
@@ -6409,16 +6432,16 @@
         <v>43232</v>
       </c>
       <c r="G122" s="2">
-        <v>0.5229166666666667</v>
+        <v>0.45694444444444443</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I122">
-        <v>35.211030000000001</v>
+        <v>35.118670000000002</v>
       </c>
       <c r="J122">
-        <v>-119.62554</v>
+        <v>-119.62897</v>
       </c>
       <c r="K122" t="s">
         <v>29</v>
@@ -6429,25 +6452,28 @@
       <c r="M122" t="s">
         <v>32</v>
       </c>
-      <c r="P122" t="s">
+      <c r="N122" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q122" t="s">
         <v>37</v>
       </c>
-      <c r="Q122" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17">
+      <c r="R122" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123">
         <v>2018</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C123">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D123">
-        <v>151.089</v>
+        <v>151.11000000000001</v>
       </c>
       <c r="E123">
         <v>5</v>
@@ -6456,16 +6482,16 @@
         <v>43232</v>
       </c>
       <c r="G123" s="2">
-        <v>0.64930555555555558</v>
+        <v>0.59097222222222223</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I123">
-        <v>35.12097</v>
+        <v>35.118850000000002</v>
       </c>
       <c r="J123">
-        <v>-119.62537</v>
+        <v>-119.6294</v>
       </c>
       <c r="K123" t="s">
         <v>29</v>
@@ -6474,24 +6500,27 @@
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>4</v>
-      </c>
-      <c r="P123" t="s">
+        <v>32</v>
+      </c>
+      <c r="N123" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q123" t="s">
         <v>37</v>
       </c>
-      <c r="Q123" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17">
+      <c r="R123" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124">
         <v>2018</v>
       </c>
-      <c r="B124">
-        <v>12</v>
+      <c r="B124" t="s">
+        <v>6</v>
       </c>
       <c r="C124">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D124">
         <v>151.11000000000001</v>
@@ -6503,16 +6532,16 @@
         <v>43232</v>
       </c>
       <c r="G124" s="2">
-        <v>0.45694444444444443</v>
+        <v>0.49027777777777781</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I124">
-        <v>35.118670000000002</v>
+        <v>35.118360000000003</v>
       </c>
       <c r="J124">
-        <v>-119.62897</v>
+        <v>-119.62962</v>
       </c>
       <c r="K124" t="s">
         <v>29</v>
@@ -6520,28 +6549,22 @@
       <c r="L124" t="s">
         <v>1</v>
       </c>
-      <c r="M124" t="s">
-        <v>32</v>
-      </c>
-      <c r="N124" t="s">
-        <v>35</v>
-      </c>
-      <c r="P124" t="s">
+      <c r="Q124" t="s">
         <v>37</v>
       </c>
-      <c r="Q124" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17">
+      <c r="R124" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125">
         <v>2018</v>
       </c>
-      <c r="B125">
-        <v>12</v>
+      <c r="B125" t="s">
+        <v>6</v>
       </c>
       <c r="C125">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D125">
         <v>151.11000000000001</v>
@@ -6553,16 +6576,16 @@
         <v>43232</v>
       </c>
       <c r="G125" s="2">
-        <v>0.59097222222222223</v>
+        <v>0.59305555555555556</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I125">
-        <v>35.118850000000002</v>
+        <v>35.11853</v>
       </c>
       <c r="J125">
-        <v>-119.6294</v>
+        <v>-119.62992</v>
       </c>
       <c r="K125" t="s">
         <v>29</v>
@@ -6576,25 +6599,25 @@
       <c r="N125" t="s">
         <v>35</v>
       </c>
-      <c r="P125" t="s">
+      <c r="Q125" t="s">
         <v>37</v>
       </c>
-      <c r="Q125" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17">
+      <c r="R125" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126">
         <v>2018</v>
       </c>
-      <c r="B126" t="s">
-        <v>6</v>
+      <c r="B126">
+        <v>40</v>
       </c>
       <c r="C126">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D126">
-        <v>151.11000000000001</v>
+        <v>151.209</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -6603,42 +6626,42 @@
         <v>43232</v>
       </c>
       <c r="G126" s="2">
-        <v>0.49027777777777781</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I126">
-        <v>35.118360000000003</v>
+        <v>35.11139</v>
       </c>
       <c r="J126">
-        <v>-119.62962</v>
+        <v>-119.6328</v>
       </c>
       <c r="K126" t="s">
         <v>29</v>
       </c>
       <c r="L126" t="s">
-        <v>1</v>
-      </c>
-      <c r="P126" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Q126" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R126" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127">
         <v>2018</v>
       </c>
-      <c r="B127" t="s">
-        <v>6</v>
+      <c r="B127">
+        <v>40</v>
       </c>
       <c r="C127">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D127">
-        <v>151.11000000000001</v>
+        <v>151.209</v>
       </c>
       <c r="E127">
         <v>5</v>
@@ -6647,16 +6670,16 @@
         <v>43232</v>
       </c>
       <c r="G127" s="2">
-        <v>0.59305555555555556</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I127">
-        <v>35.11853</v>
+        <v>35.112209999999997</v>
       </c>
       <c r="J127">
-        <v>-119.62992</v>
+        <v>-119.63267999999999</v>
       </c>
       <c r="K127" t="s">
         <v>29</v>
@@ -6664,31 +6687,25 @@
       <c r="L127" t="s">
         <v>1</v>
       </c>
-      <c r="M127" t="s">
-        <v>32</v>
-      </c>
-      <c r="N127" t="s">
+      <c r="Q127" t="s">
+        <v>37</v>
+      </c>
+      <c r="R127" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128">
+        <v>2018</v>
+      </c>
+      <c r="B128">
         <v>35</v>
       </c>
-      <c r="P127" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17">
-      <c r="A128">
-        <v>2018</v>
-      </c>
-      <c r="B128">
-        <v>40</v>
-      </c>
       <c r="C128">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D128">
-        <v>151.209</v>
+        <v>151.22999999999999</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -6697,42 +6714,48 @@
         <v>43232</v>
       </c>
       <c r="G128" s="2">
-        <v>0.50277777777777777</v>
+        <v>0.48680555555555555</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I128">
-        <v>35.11139</v>
+        <v>35.117890000000003</v>
       </c>
       <c r="J128">
-        <v>-119.6328</v>
+        <v>-119.63287</v>
       </c>
       <c r="K128" t="s">
         <v>29</v>
       </c>
       <c r="L128" t="s">
-        <v>0</v>
-      </c>
-      <c r="P128" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="M128" t="s">
+        <v>32</v>
+      </c>
+      <c r="N128" t="s">
+        <v>35</v>
       </c>
       <c r="Q128" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R128" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129">
         <v>2018</v>
       </c>
       <c r="B129">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C129">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D129">
-        <v>151.209</v>
+        <v>151.22999999999999</v>
       </c>
       <c r="E129">
         <v>5</v>
@@ -6741,42 +6764,45 @@
         <v>43232</v>
       </c>
       <c r="G129" s="2">
-        <v>0.64166666666666672</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I129">
-        <v>35.112209999999997</v>
+        <v>35.117229999999999</v>
       </c>
       <c r="J129">
-        <v>-119.63267999999999</v>
+        <v>-119.63154</v>
       </c>
       <c r="K129" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L129" t="s">
         <v>1</v>
       </c>
-      <c r="P129" t="s">
-        <v>37</v>
+      <c r="M129" t="s">
+        <v>35</v>
       </c>
       <c r="Q129" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R129" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130">
         <v>2018</v>
       </c>
       <c r="B130">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C130">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D130">
-        <v>151.22999999999999</v>
+        <v>151.29</v>
       </c>
       <c r="E130">
         <v>5</v>
@@ -6785,19 +6811,19 @@
         <v>43232</v>
       </c>
       <c r="G130" s="2">
-        <v>0.48680555555555555</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I130">
-        <v>35.117890000000003</v>
+        <v>35.119680000000002</v>
       </c>
       <c r="J130">
-        <v>-119.63287</v>
+        <v>-119.62641000000001</v>
       </c>
       <c r="K130" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L130" t="s">
         <v>1</v>
@@ -6805,28 +6831,25 @@
       <c r="M130" t="s">
         <v>32</v>
       </c>
-      <c r="N130" t="s">
-        <v>35</v>
-      </c>
-      <c r="P130" t="s">
-        <v>37</v>
-      </c>
       <c r="Q130" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R130" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131">
         <v>2018</v>
       </c>
       <c r="B131">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C131">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D131">
-        <v>151.22999999999999</v>
+        <v>151.29</v>
       </c>
       <c r="E131">
         <v>5</v>
@@ -6835,16 +6858,16 @@
         <v>43232</v>
       </c>
       <c r="G131" s="2">
-        <v>0.6166666666666667</v>
+        <v>0.65625</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I131">
-        <v>35.117229999999999</v>
+        <v>35.119929999999997</v>
       </c>
       <c r="J131">
-        <v>-119.63154</v>
+        <v>-119.62679</v>
       </c>
       <c r="K131" t="s">
         <v>33</v>
@@ -6852,28 +6875,25 @@
       <c r="L131" t="s">
         <v>1</v>
       </c>
-      <c r="M131" t="s">
-        <v>35</v>
-      </c>
-      <c r="P131" t="s">
-        <v>5</v>
-      </c>
       <c r="Q131" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R131" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132">
         <v>2018</v>
       </c>
       <c r="B132">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C132">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D132">
-        <v>151.29</v>
+        <v>151.37</v>
       </c>
       <c r="E132">
         <v>5</v>
@@ -6882,19 +6902,19 @@
         <v>43232</v>
       </c>
       <c r="G132" s="2">
-        <v>0.53333333333333333</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I132">
-        <v>35.119680000000002</v>
+        <v>35.117849999999997</v>
       </c>
       <c r="J132">
-        <v>-119.62641000000001</v>
+        <v>-119.62390000000001</v>
       </c>
       <c r="K132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L132" t="s">
         <v>1</v>
@@ -6902,25 +6922,25 @@
       <c r="M132" t="s">
         <v>32</v>
       </c>
-      <c r="P132" t="s">
-        <v>5</v>
-      </c>
       <c r="Q132" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R132" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133">
         <v>2018</v>
       </c>
       <c r="B133">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C133">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D133">
-        <v>151.29</v>
+        <v>151.37</v>
       </c>
       <c r="E133">
         <v>5</v>
@@ -6929,42 +6949,48 @@
         <v>43232</v>
       </c>
       <c r="G133" s="2">
-        <v>0.65625</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I133">
-        <v>35.119929999999997</v>
+        <v>35.118009999999998</v>
       </c>
       <c r="J133">
-        <v>-119.62679</v>
+        <v>-119.62421999999999</v>
       </c>
       <c r="K133" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L133" t="s">
         <v>1</v>
       </c>
-      <c r="P133" t="s">
-        <v>5</v>
+      <c r="M133" t="s">
+        <v>32</v>
+      </c>
+      <c r="N133" t="s">
+        <v>35</v>
       </c>
       <c r="Q133" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R133" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134">
         <v>2018</v>
       </c>
       <c r="B134">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="C134">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D134">
-        <v>151.37</v>
+        <v>151.43</v>
       </c>
       <c r="E134">
         <v>5</v>
@@ -6973,16 +6999,16 @@
         <v>43232</v>
       </c>
       <c r="G134" s="2">
-        <v>0.51736111111111105</v>
+        <v>0.42777777777777781</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I134">
-        <v>35.117849999999997</v>
+        <v>35.125999999999998</v>
       </c>
       <c r="J134">
-        <v>-119.62390000000001</v>
+        <v>-119.63694</v>
       </c>
       <c r="K134" t="s">
         <v>29</v>
@@ -6990,28 +7016,25 @@
       <c r="L134" t="s">
         <v>1</v>
       </c>
-      <c r="M134" t="s">
-        <v>32</v>
-      </c>
-      <c r="P134" t="s">
-        <v>5</v>
-      </c>
       <c r="Q134" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R134" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135">
         <v>2018</v>
       </c>
       <c r="B135">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D135">
-        <v>151.37</v>
+        <v>151.43</v>
       </c>
       <c r="E135">
         <v>5</v>
@@ -7020,16 +7043,16 @@
         <v>43232</v>
       </c>
       <c r="G135" s="2">
-        <v>0.59791666666666665</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I135">
-        <v>35.118009999999998</v>
+        <v>35.125929999999997</v>
       </c>
       <c r="J135">
-        <v>-119.62421999999999</v>
+        <v>-119.63713</v>
       </c>
       <c r="K135" t="s">
         <v>29</v>
@@ -7040,28 +7063,25 @@
       <c r="M135" t="s">
         <v>32</v>
       </c>
-      <c r="N135" t="s">
-        <v>35</v>
-      </c>
-      <c r="P135" t="s">
-        <v>5</v>
-      </c>
       <c r="Q135" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R135" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136">
         <v>2018</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C136">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D136">
-        <v>151.43</v>
+        <v>151.47</v>
       </c>
       <c r="E136">
         <v>5</v>
@@ -7070,42 +7090,42 @@
         <v>43232</v>
       </c>
       <c r="G136" s="2">
-        <v>0.42777777777777781</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I136">
-        <v>35.125999999999998</v>
+        <v>35.124040000000001</v>
       </c>
       <c r="J136">
-        <v>-119.63694</v>
+        <v>-119.63538</v>
       </c>
       <c r="K136" t="s">
         <v>29</v>
       </c>
       <c r="L136" t="s">
-        <v>1</v>
-      </c>
-      <c r="P136" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="s">
         <v>37</v>
       </c>
-      <c r="Q136" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17">
+      <c r="R136" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137">
         <v>2018</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C137">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D137">
-        <v>151.43</v>
+        <v>151.47</v>
       </c>
       <c r="E137">
         <v>5</v>
@@ -7114,16 +7134,16 @@
         <v>43232</v>
       </c>
       <c r="G137" s="2">
-        <v>0.57638888888888895</v>
+        <v>0.58124999999999993</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I137">
-        <v>35.125929999999997</v>
+        <v>35.124009999999998</v>
       </c>
       <c r="J137">
-        <v>-119.63713</v>
+        <v>-119.63575</v>
       </c>
       <c r="K137" t="s">
         <v>29</v>
@@ -7134,25 +7154,25 @@
       <c r="M137" t="s">
         <v>32</v>
       </c>
-      <c r="P137" t="s">
+      <c r="Q137" t="s">
         <v>37</v>
       </c>
-      <c r="Q137" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17">
+      <c r="R137" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138">
         <v>2018</v>
       </c>
       <c r="B138">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C138">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D138">
-        <v>151.47</v>
+        <v>151.59</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -7161,42 +7181,42 @@
         <v>43232</v>
       </c>
       <c r="G138" s="2">
-        <v>0.43402777777777773</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I138">
-        <v>35.124040000000001</v>
+        <v>35.118389999999998</v>
       </c>
       <c r="J138">
-        <v>-119.63538</v>
+        <v>-119.62581</v>
       </c>
       <c r="K138" t="s">
         <v>29</v>
       </c>
       <c r="L138" t="s">
-        <v>0</v>
-      </c>
-      <c r="P138" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Q138" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R138" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139">
         <v>2018</v>
       </c>
       <c r="B139">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C139">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D139">
-        <v>151.47</v>
+        <v>151.59</v>
       </c>
       <c r="E139">
         <v>5</v>
@@ -7205,16 +7225,16 @@
         <v>43232</v>
       </c>
       <c r="G139" s="2">
-        <v>0.58124999999999993</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I139">
-        <v>35.124009999999998</v>
+        <v>35.117980000000003</v>
       </c>
       <c r="J139">
-        <v>-119.63575</v>
+        <v>-119.62533000000001</v>
       </c>
       <c r="K139" t="s">
         <v>29</v>
@@ -7222,28 +7242,25 @@
       <c r="L139" t="s">
         <v>1</v>
       </c>
-      <c r="M139" t="s">
-        <v>32</v>
-      </c>
-      <c r="P139" t="s">
-        <v>37</v>
-      </c>
       <c r="Q139" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17">
+        <v>5</v>
+      </c>
+      <c r="R139" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140">
         <v>2018</v>
       </c>
       <c r="B140">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C140">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D140">
-        <v>151.59</v>
+        <v>151.61000000000001</v>
       </c>
       <c r="E140">
         <v>5</v>
@@ -7252,16 +7269,16 @@
         <v>43232</v>
       </c>
       <c r="G140" s="2">
-        <v>0.50624999999999998</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I140">
-        <v>35.118389999999998</v>
+        <v>35.175669999999997</v>
       </c>
       <c r="J140">
-        <v>-119.62581</v>
+        <v>-119.62389</v>
       </c>
       <c r="K140" t="s">
         <v>29</v>
@@ -7269,25 +7286,28 @@
       <c r="L140" t="s">
         <v>1</v>
       </c>
-      <c r="P140" t="s">
-        <v>5</v>
+      <c r="M140" t="s">
+        <v>43</v>
       </c>
       <c r="Q140" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17">
+        <v>44</v>
+      </c>
+      <c r="R140" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141">
         <v>2018</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C141">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D141">
-        <v>151.59</v>
+        <v>151.61000000000001</v>
       </c>
       <c r="E141">
         <v>5</v>
@@ -7296,16 +7316,16 @@
         <v>43232</v>
       </c>
       <c r="G141" s="2">
-        <v>0.63888888888888895</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I141">
-        <v>35.117980000000003</v>
+        <v>35.115760000000002</v>
       </c>
       <c r="J141">
-        <v>-119.62533000000001</v>
+        <v>-119.6246</v>
       </c>
       <c r="K141" t="s">
         <v>29</v>
@@ -7313,25 +7333,31 @@
       <c r="L141" t="s">
         <v>1</v>
       </c>
-      <c r="P141" t="s">
-        <v>5</v>
+      <c r="M141" t="s">
+        <v>36</v>
+      </c>
+      <c r="N141" t="s">
+        <v>47</v>
       </c>
       <c r="Q141" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R141" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142">
         <v>2018</v>
       </c>
       <c r="B142">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C142">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D142">
-        <v>151.61000000000001</v>
+        <v>151.649</v>
       </c>
       <c r="E142">
         <v>5</v>
@@ -7340,16 +7366,16 @@
         <v>43232</v>
       </c>
       <c r="G142" s="2">
-        <v>0.48055555555555557</v>
+        <v>0.45416666666666666</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I142">
-        <v>35.175669999999997</v>
+        <v>35.120240000000003</v>
       </c>
       <c r="J142">
-        <v>-119.62389</v>
+        <v>-119.62756</v>
       </c>
       <c r="K142" t="s">
         <v>29</v>
@@ -7358,27 +7384,27 @@
         <v>1</v>
       </c>
       <c r="M142" t="s">
-        <v>43</v>
-      </c>
-      <c r="P142" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Q142" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17">
+        <v>37</v>
+      </c>
+      <c r="R142" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143">
         <v>2018</v>
       </c>
       <c r="B143">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C143">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D143">
-        <v>151.61000000000001</v>
+        <v>151.649</v>
       </c>
       <c r="E143">
         <v>5</v>
@@ -7387,16 +7413,16 @@
         <v>43232</v>
       </c>
       <c r="G143" s="2">
-        <v>0.60416666666666663</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I143">
-        <v>35.115760000000002</v>
+        <v>35.120429999999999</v>
       </c>
       <c r="J143">
-        <v>-119.6246</v>
+        <v>-119.62791</v>
       </c>
       <c r="K143" t="s">
         <v>29</v>
@@ -7405,30 +7431,27 @@
         <v>1</v>
       </c>
       <c r="M143" t="s">
-        <v>36</v>
-      </c>
-      <c r="N143" t="s">
-        <v>47</v>
-      </c>
-      <c r="P143" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q143" t="s">
         <v>37</v>
       </c>
-      <c r="Q143" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17">
+      <c r="R143" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144">
         <v>2018</v>
       </c>
       <c r="B144">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C144">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D144">
-        <v>151.649</v>
+        <v>151.79</v>
       </c>
       <c r="E144">
         <v>5</v>
@@ -7437,45 +7460,45 @@
         <v>43232</v>
       </c>
       <c r="G144" s="2">
-        <v>0.45416666666666666</v>
+        <v>0.45208333333333334</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I144">
-        <v>35.120240000000003</v>
+        <v>35.115470000000002</v>
       </c>
       <c r="J144">
-        <v>-119.62756</v>
+        <v>-119.61966</v>
       </c>
       <c r="K144" t="s">
         <v>29</v>
       </c>
       <c r="L144" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M144" t="s">
-        <v>32</v>
-      </c>
-      <c r="P144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q144" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R144" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145">
         <v>2018</v>
       </c>
       <c r="B145">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C145">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D145">
-        <v>151.649</v>
+        <v>151.79</v>
       </c>
       <c r="E145">
         <v>5</v>
@@ -7484,16 +7507,16 @@
         <v>43232</v>
       </c>
       <c r="G145" s="2">
-        <v>0.60069444444444442</v>
+        <v>0.58124999999999993</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I145">
-        <v>35.120429999999999</v>
+        <v>35.115659999999998</v>
       </c>
       <c r="J145">
-        <v>-119.62791</v>
+        <v>-119.62007</v>
       </c>
       <c r="K145" t="s">
         <v>29</v>
@@ -7502,16 +7525,19 @@
         <v>1</v>
       </c>
       <c r="M145" t="s">
-        <v>32</v>
-      </c>
-      <c r="P145" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="N145" t="s">
+        <v>46</v>
       </c>
       <c r="Q145" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R145" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146">
         <v>2018</v>
       </c>
@@ -7551,14 +7577,14 @@
       <c r="M146" t="s">
         <v>32</v>
       </c>
-      <c r="P146" t="s">
+      <c r="Q146" t="s">
         <v>37</v>
       </c>
-      <c r="Q146" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="R146" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147">
         <v>2018</v>
       </c>
@@ -7598,14 +7624,14 @@
       <c r="M147" t="s">
         <v>32</v>
       </c>
-      <c r="P147" t="s">
+      <c r="Q147" t="s">
         <v>37</v>
       </c>
-      <c r="Q147" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="R147" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148">
         <v>2018</v>
       </c>
@@ -7645,17 +7671,17 @@
       <c r="M148" t="s">
         <v>32</v>
       </c>
-      <c r="P148" t="s">
-        <v>5</v>
-      </c>
       <c r="Q148" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="R148" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18">
+        <v>57</v>
+      </c>
+      <c r="S148" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149">
         <v>2018</v>
       </c>
@@ -7695,14 +7721,14 @@
       <c r="M149" t="s">
         <v>32</v>
       </c>
-      <c r="P149" t="s">
-        <v>5</v>
-      </c>
       <c r="Q149" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R149" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150">
         <v>2018</v>
       </c>
@@ -7739,14 +7765,14 @@
       <c r="L150" t="s">
         <v>1</v>
       </c>
-      <c r="P150" t="s">
-        <v>5</v>
-      </c>
       <c r="Q150" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R150" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151">
         <v>2018</v>
       </c>
@@ -7786,19 +7812,19 @@
       <c r="M151" t="s">
         <v>32</v>
       </c>
-      <c r="P151" t="s">
-        <v>5</v>
-      </c>
       <c r="Q151" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R151" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152">
         <v>2018</v>
       </c>
       <c r="B152">
-        <v>130</v>
+        <v>1337</v>
       </c>
       <c r="C152">
         <v>29</v>
@@ -7833,19 +7859,19 @@
       <c r="M152" t="s">
         <v>32</v>
       </c>
-      <c r="P152" t="s">
-        <v>5</v>
-      </c>
       <c r="Q152" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R152" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153">
         <v>2018</v>
       </c>
       <c r="B153">
-        <v>130</v>
+        <v>1337</v>
       </c>
       <c r="C153">
         <v>29</v>
@@ -7883,19 +7909,19 @@
       <c r="N153" t="s">
         <v>35</v>
       </c>
-      <c r="P153" t="s">
-        <v>5</v>
-      </c>
       <c r="Q153" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R153" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154">
         <v>2018</v>
       </c>
       <c r="B154">
-        <v>1337</v>
+        <v>130</v>
       </c>
       <c r="C154">
         <v>30</v>
@@ -7927,22 +7953,22 @@
       <c r="L154" t="s">
         <v>1</v>
       </c>
-      <c r="P154" t="s">
-        <v>5</v>
-      </c>
       <c r="Q154" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="R154" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18">
+        <v>53</v>
+      </c>
+      <c r="S154" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155">
         <v>2018</v>
       </c>
       <c r="B155">
-        <v>1337</v>
+        <v>130</v>
       </c>
       <c r="C155">
         <v>30</v>
@@ -7974,14 +8000,14 @@
       <c r="L155" t="s">
         <v>0</v>
       </c>
-      <c r="P155" t="s">
+      <c r="Q155" t="s">
         <v>45</v>
       </c>
-      <c r="Q155" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="R155" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156">
         <v>2018</v>
       </c>
@@ -8021,14 +8047,14 @@
       <c r="M156" t="s">
         <v>32</v>
       </c>
-      <c r="P156" t="s">
-        <v>5</v>
-      </c>
       <c r="Q156" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R156" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157">
         <v>2018</v>
       </c>
@@ -8068,14 +8094,14 @@
       <c r="M157" t="s">
         <v>36</v>
       </c>
-      <c r="P157" t="s">
-        <v>5</v>
-      </c>
       <c r="Q157" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R157" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158">
         <v>2018</v>
       </c>
@@ -8115,14 +8141,14 @@
       <c r="M158" t="s">
         <v>36</v>
       </c>
-      <c r="P158" t="s">
-        <v>5</v>
-      </c>
       <c r="Q158" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R158" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159">
         <v>2018</v>
       </c>
@@ -8162,14 +8188,14 @@
       <c r="M159" t="s">
         <v>32</v>
       </c>
-      <c r="P159" t="s">
-        <v>54</v>
-      </c>
       <c r="Q159" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18">
+        <v>52</v>
+      </c>
+      <c r="R159" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160">
         <v>2018</v>
       </c>
@@ -8206,14 +8232,14 @@
       <c r="L160" t="s">
         <v>1</v>
       </c>
-      <c r="P160" t="s">
-        <v>5</v>
-      </c>
       <c r="Q160" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R160" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161">
         <v>2018</v>
       </c>
@@ -8253,14 +8279,14 @@
       <c r="M161" t="s">
         <v>32</v>
       </c>
-      <c r="P161" t="s">
-        <v>5</v>
-      </c>
       <c r="Q161" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R161" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162">
         <v>2018</v>
       </c>
@@ -8297,25 +8323,25 @@
       <c r="L162" t="s">
         <v>0</v>
       </c>
-      <c r="P162" t="s">
-        <v>5</v>
-      </c>
       <c r="Q162" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R162" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163">
         <v>2018</v>
       </c>
       <c r="B163">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C163">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163">
-        <v>151.79</v>
+        <v>150.81</v>
       </c>
       <c r="E163">
         <v>6</v>
@@ -8324,42 +8350,42 @@
         <v>43233</v>
       </c>
       <c r="G163" s="2">
-        <v>0.4826388888888889</v>
+        <v>0.55972222222222223</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I163">
-        <v>35.116129999999998</v>
+        <v>35.11712</v>
       </c>
       <c r="J163">
-        <v>-119.61973</v>
+        <v>-119.63428999999999</v>
       </c>
       <c r="K163" t="s">
         <v>29</v>
       </c>
       <c r="L163" t="s">
-        <v>0</v>
-      </c>
-      <c r="P163" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q163" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18">
+        <v>37</v>
+      </c>
+      <c r="R163" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164">
         <v>2018</v>
       </c>
       <c r="B164">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="C164">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164">
-        <v>150.81</v>
+        <v>150.83000000000001</v>
       </c>
       <c r="E164">
         <v>6</v>
@@ -8368,16 +8394,16 @@
         <v>43233</v>
       </c>
       <c r="G164" s="2">
-        <v>0.55972222222222223</v>
+        <v>0.61041666666666672</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I164">
-        <v>35.11712</v>
+        <v>35.11815</v>
       </c>
       <c r="J164">
-        <v>-119.63428999999999</v>
+        <v>-119.63175</v>
       </c>
       <c r="K164" t="s">
         <v>29</v>
@@ -8385,25 +8411,25 @@
       <c r="L164" t="s">
         <v>1</v>
       </c>
-      <c r="P164" t="s">
+      <c r="Q164" t="s">
         <v>37</v>
       </c>
-      <c r="Q164" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="R164" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165">
         <v>2018</v>
       </c>
       <c r="B165">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C165">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D165">
-        <v>150.83000000000001</v>
+        <v>151</v>
       </c>
       <c r="E165">
         <v>6</v>
@@ -8412,16 +8438,16 @@
         <v>43233</v>
       </c>
       <c r="G165" s="2">
-        <v>0.61041666666666672</v>
+        <v>0.61527777777777781</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I165">
-        <v>35.11815</v>
+        <v>35.119349999999997</v>
       </c>
       <c r="J165">
-        <v>-119.63175</v>
+        <v>-119.62911</v>
       </c>
       <c r="K165" t="s">
         <v>29</v>
@@ -8429,25 +8455,31 @@
       <c r="L165" t="s">
         <v>1</v>
       </c>
-      <c r="P165" t="s">
-        <v>37</v>
+      <c r="M165" t="s">
+        <v>56</v>
       </c>
       <c r="Q165" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18">
+        <v>55</v>
+      </c>
+      <c r="R165" t="s">
+        <v>53</v>
+      </c>
+      <c r="S165" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166">
         <v>2018</v>
       </c>
       <c r="B166">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="C166">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D166">
-        <v>151</v>
+        <v>151.029</v>
       </c>
       <c r="E166">
         <v>6</v>
@@ -8456,16 +8488,16 @@
         <v>43233</v>
       </c>
       <c r="G166" s="2">
-        <v>0.61527777777777781</v>
+        <v>0.57361111111111118</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I166">
-        <v>35.119349999999997</v>
+        <v>35.115499999999997</v>
       </c>
       <c r="J166">
-        <v>-119.62911</v>
+        <v>-119.63506</v>
       </c>
       <c r="K166" t="s">
         <v>29</v>
@@ -8474,30 +8506,27 @@
         <v>1</v>
       </c>
       <c r="M166" t="s">
-        <v>58</v>
-      </c>
-      <c r="P166" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="Q166" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="R166" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167">
         <v>2018</v>
       </c>
       <c r="B167">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="C167">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D167">
-        <v>151.029</v>
+        <v>151.04900000000001</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -8506,16 +8535,16 @@
         <v>43233</v>
       </c>
       <c r="G167" s="2">
-        <v>0.57361111111111118</v>
+        <v>0.62430555555555556</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I167">
-        <v>35.115499999999997</v>
+        <v>35.119219999999999</v>
       </c>
       <c r="J167">
-        <v>-119.63506</v>
+        <v>-119.62878000000001</v>
       </c>
       <c r="K167" t="s">
         <v>29</v>
@@ -8524,27 +8553,27 @@
         <v>1</v>
       </c>
       <c r="M167" t="s">
-        <v>32</v>
-      </c>
-      <c r="P167" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q167" t="s">
         <v>37</v>
       </c>
-      <c r="Q167" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="R167" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168">
         <v>2018</v>
       </c>
       <c r="B168">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C168">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D168">
-        <v>151.04900000000001</v>
+        <v>151.089</v>
       </c>
       <c r="E168">
         <v>6</v>
@@ -8553,16 +8582,16 @@
         <v>43233</v>
       </c>
       <c r="G168" s="2">
-        <v>0.62430555555555556</v>
+        <v>0.5541666666666667</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I168">
-        <v>35.119219999999999</v>
+        <v>35.121009999999998</v>
       </c>
       <c r="J168">
-        <v>-119.62878000000001</v>
+        <v>-119.62537</v>
       </c>
       <c r="K168" t="s">
         <v>29</v>
@@ -8571,27 +8600,27 @@
         <v>1</v>
       </c>
       <c r="M168" t="s">
-        <v>7</v>
-      </c>
-      <c r="P168" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q168" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R168" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169">
         <v>2018</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C169">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D169">
-        <v>151.089</v>
+        <v>151.11000000000001</v>
       </c>
       <c r="E169">
         <v>6</v>
@@ -8600,42 +8629,39 @@
         <v>43233</v>
       </c>
       <c r="G169" s="2">
-        <v>0.5541666666666667</v>
+        <v>0.53541666666666665</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I169">
-        <v>35.121009999999998</v>
+        <v>35.119160000000001</v>
       </c>
       <c r="J169">
-        <v>-119.62537</v>
+        <v>-119.63034</v>
       </c>
       <c r="K169" t="s">
         <v>29</v>
       </c>
       <c r="L169" t="s">
-        <v>1</v>
-      </c>
-      <c r="M169" t="s">
-        <v>46</v>
-      </c>
-      <c r="P169" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q169" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R169" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170">
         <v>2018</v>
       </c>
-      <c r="B170">
-        <v>12</v>
+      <c r="B170" t="s">
+        <v>6</v>
       </c>
       <c r="C170">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D170">
         <v>151.11000000000001</v>
@@ -8647,42 +8673,42 @@
         <v>43233</v>
       </c>
       <c r="G170" s="2">
-        <v>0.53541666666666665</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I170">
-        <v>35.119160000000001</v>
+        <v>35.118459999999999</v>
       </c>
       <c r="J170">
-        <v>-119.63034</v>
+        <v>-119.62911</v>
       </c>
       <c r="K170" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L170" t="s">
-        <v>0</v>
-      </c>
-      <c r="P170" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q170" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R170" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
       <c r="A171">
         <v>2018</v>
       </c>
-      <c r="B171" t="s">
-        <v>6</v>
+      <c r="B171">
+        <v>40</v>
       </c>
       <c r="C171">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D171">
-        <v>151.11000000000001</v>
+        <v>151.209</v>
       </c>
       <c r="E171">
         <v>6</v>
@@ -8691,42 +8717,42 @@
         <v>43233</v>
       </c>
       <c r="G171" s="2">
-        <v>0.61111111111111105</v>
+        <v>0.59375</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I171">
-        <v>35.118459999999999</v>
+        <v>35.112169999999999</v>
       </c>
       <c r="J171">
-        <v>-119.62911</v>
+        <v>-119.63323</v>
       </c>
       <c r="K171" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L171" t="s">
         <v>1</v>
       </c>
-      <c r="P171" t="s">
-        <v>5</v>
-      </c>
       <c r="Q171" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R171" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
       <c r="A172">
         <v>2018</v>
       </c>
       <c r="B172">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C172">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D172">
-        <v>151.209</v>
+        <v>151.22999999999999</v>
       </c>
       <c r="E172">
         <v>6</v>
@@ -8735,16 +8761,16 @@
         <v>43233</v>
       </c>
       <c r="G172" s="2">
-        <v>0.59375</v>
+        <v>0.6</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I172">
-        <v>35.112169999999999</v>
+        <v>35.117959999999997</v>
       </c>
       <c r="J172">
-        <v>-119.63323</v>
+        <v>-119.63205000000001</v>
       </c>
       <c r="K172" t="s">
         <v>29</v>
@@ -8752,25 +8778,25 @@
       <c r="L172" t="s">
         <v>1</v>
       </c>
-      <c r="P172" t="s">
-        <v>5</v>
-      </c>
       <c r="Q172" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18">
+        <v>37</v>
+      </c>
+      <c r="R172" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173">
         <v>2018</v>
       </c>
       <c r="B173">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C173">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D173">
-        <v>151.22999999999999</v>
+        <v>151.29</v>
       </c>
       <c r="E173">
         <v>6</v>
@@ -8779,42 +8805,45 @@
         <v>43233</v>
       </c>
       <c r="G173" s="2">
-        <v>0.6</v>
+        <v>0.5493055555555556</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I173">
-        <v>35.117959999999997</v>
+        <v>35.119799999999998</v>
       </c>
       <c r="J173">
-        <v>-119.63205000000001</v>
+        <v>-119.62702</v>
       </c>
       <c r="K173" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L173" t="s">
         <v>1</v>
       </c>
-      <c r="P173" t="s">
-        <v>37</v>
+      <c r="M173" t="s">
+        <v>35</v>
       </c>
       <c r="Q173" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R173" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19">
       <c r="A174">
         <v>2018</v>
       </c>
       <c r="B174">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C174">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D174">
-        <v>151.29</v>
+        <v>151.37</v>
       </c>
       <c r="E174">
         <v>6</v>
@@ -8823,16 +8852,16 @@
         <v>43233</v>
       </c>
       <c r="G174" s="2">
-        <v>0.5493055555555556</v>
+        <v>0.5</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I174">
-        <v>35.119799999999998</v>
+        <v>35.117930000000001</v>
       </c>
       <c r="J174">
-        <v>-119.62702</v>
+        <v>-119.62384</v>
       </c>
       <c r="K174" t="s">
         <v>33</v>
@@ -8843,25 +8872,25 @@
       <c r="M174" t="s">
         <v>35</v>
       </c>
-      <c r="P174" t="s">
-        <v>5</v>
-      </c>
       <c r="Q174" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R174" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19">
       <c r="A175">
         <v>2018</v>
       </c>
       <c r="B175">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D175">
-        <v>151.37</v>
+        <v>151.43</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -8870,45 +8899,42 @@
         <v>43233</v>
       </c>
       <c r="G175" s="2">
-        <v>0.5</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I175">
-        <v>35.117930000000001</v>
+        <v>35.12697</v>
       </c>
       <c r="J175">
-        <v>-119.62384</v>
+        <v>-119.63715000000001</v>
       </c>
       <c r="K175" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L175" t="s">
-        <v>1</v>
-      </c>
-      <c r="M175" t="s">
-        <v>35</v>
-      </c>
-      <c r="P175" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q175" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18">
+        <v>37</v>
+      </c>
+      <c r="R175" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176">
         <v>2018</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C176">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D176">
-        <v>151.43</v>
+        <v>151.47</v>
       </c>
       <c r="E176">
         <v>6</v>
@@ -8917,42 +8943,42 @@
         <v>43233</v>
       </c>
       <c r="G176" s="2">
-        <v>0.4777777777777778</v>
+        <v>0.51250000000000007</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I176">
-        <v>35.12697</v>
+        <v>35.123869999999997</v>
       </c>
       <c r="J176">
-        <v>-119.63715000000001</v>
+        <v>-119.63569</v>
       </c>
       <c r="K176" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L176" t="s">
-        <v>0</v>
-      </c>
-      <c r="P176" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Q176" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R176" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177">
         <v>2018</v>
       </c>
       <c r="B177">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C177">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D177">
-        <v>151.47</v>
+        <v>151.59</v>
       </c>
       <c r="E177">
         <v>6</v>
@@ -8961,42 +8987,45 @@
         <v>43233</v>
       </c>
       <c r="G177" s="2">
-        <v>0.51250000000000007</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I177">
-        <v>35.123869999999997</v>
+        <v>35.11786</v>
       </c>
       <c r="J177">
-        <v>-119.63569</v>
+        <v>-119.6255</v>
       </c>
       <c r="K177" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L177" t="s">
         <v>1</v>
       </c>
-      <c r="P177" t="s">
-        <v>5</v>
+      <c r="M177" t="s">
+        <v>35</v>
       </c>
       <c r="Q177" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R177" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178">
         <v>2018</v>
       </c>
       <c r="B178">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C178">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D178">
-        <v>151.59</v>
+        <v>151.61000000000001</v>
       </c>
       <c r="E178">
         <v>6</v>
@@ -9005,45 +9034,42 @@
         <v>43233</v>
       </c>
       <c r="G178" s="2">
-        <v>0.5444444444444444</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I178">
-        <v>35.11786</v>
+        <v>35.115380000000002</v>
       </c>
       <c r="J178">
-        <v>-119.6255</v>
+        <v>-119.6241</v>
       </c>
       <c r="K178" t="s">
         <v>29</v>
       </c>
       <c r="L178" t="s">
-        <v>1</v>
-      </c>
-      <c r="M178" t="s">
-        <v>35</v>
-      </c>
-      <c r="P178" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q178" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R178" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179">
         <v>2018</v>
       </c>
       <c r="B179">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C179">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D179">
-        <v>151.61000000000001</v>
+        <v>151.79</v>
       </c>
       <c r="E179">
         <v>6</v>
@@ -9052,16 +9078,16 @@
         <v>43233</v>
       </c>
       <c r="G179" s="2">
-        <v>0.51736111111111105</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I179">
-        <v>35.115380000000002</v>
+        <v>35.116129999999998</v>
       </c>
       <c r="J179">
-        <v>-119.6241</v>
+        <v>-119.61973</v>
       </c>
       <c r="K179" t="s">
         <v>29</v>
@@ -9069,14 +9095,14 @@
       <c r="L179" t="s">
         <v>0</v>
       </c>
-      <c r="P179" t="s">
-        <v>5</v>
-      </c>
       <c r="Q179" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R179" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180">
         <v>2018</v>
       </c>
@@ -9116,14 +9142,14 @@
       <c r="M180" t="s">
         <v>32</v>
       </c>
-      <c r="P180" t="s">
+      <c r="Q180" t="s">
         <v>37</v>
       </c>
-      <c r="Q180" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="R180" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181">
         <v>2018</v>
       </c>
@@ -9163,14 +9189,14 @@
       <c r="M181" t="s">
         <v>36</v>
       </c>
-      <c r="P181" t="s">
-        <v>5</v>
-      </c>
       <c r="Q181" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R181" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182">
         <v>2018</v>
       </c>
@@ -9207,19 +9233,19 @@
       <c r="L182" t="s">
         <v>1</v>
       </c>
-      <c r="P182" t="s">
-        <v>5</v>
-      </c>
       <c r="Q182" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18">
+        <v>5</v>
+      </c>
+      <c r="R182" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183">
         <v>2018</v>
       </c>
       <c r="B183">
-        <v>1337</v>
+        <v>130</v>
       </c>
       <c r="C183">
         <v>30</v>
@@ -9254,19 +9280,1416 @@
       <c r="M183" t="s">
         <v>35</v>
       </c>
-      <c r="P183" t="s">
-        <v>5</v>
-      </c>
       <c r="Q183" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="R183" t="s">
-        <v>63</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="S183" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19">
+      <c r="A184">
+        <v>2018</v>
+      </c>
+      <c r="B184">
+        <v>91</v>
+      </c>
+      <c r="C184">
+        <v>20</v>
+      </c>
+      <c r="D184">
+        <v>151.37</v>
+      </c>
+      <c r="E184">
+        <v>7</v>
+      </c>
+      <c r="F184" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G184" s="2">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I184">
+        <v>35.117359999999998</v>
+      </c>
+      <c r="J184">
+        <v>-119.62483</v>
+      </c>
+      <c r="K184" t="s">
+        <v>29</v>
+      </c>
+      <c r="L184" t="s">
+        <v>1</v>
+      </c>
+      <c r="M184" t="s">
+        <v>32</v>
+      </c>
+      <c r="P184">
+        <v>1.528</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>5</v>
+      </c>
+      <c r="R184" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19">
+      <c r="A185">
+        <v>2018</v>
+      </c>
+      <c r="B185">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <v>23</v>
+      </c>
+      <c r="D185">
+        <v>151.59</v>
+      </c>
+      <c r="E185">
+        <v>7</v>
+      </c>
+      <c r="F185" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G185" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I185">
+        <v>35.118020000000001</v>
+      </c>
+      <c r="J185">
+        <v>-119.62514</v>
+      </c>
+      <c r="K185" t="s">
+        <v>29</v>
+      </c>
+      <c r="L185" t="s">
+        <v>1</v>
+      </c>
+      <c r="M185" t="s">
+        <v>8</v>
+      </c>
+      <c r="P185">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>37</v>
+      </c>
+      <c r="R185" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
+      <c r="A186">
+        <v>2018</v>
+      </c>
+      <c r="B186">
+        <v>44</v>
+      </c>
+      <c r="C186">
+        <v>6</v>
+      </c>
+      <c r="D186">
+        <v>150.75</v>
+      </c>
+      <c r="E186">
+        <v>7</v>
+      </c>
+      <c r="F186" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G186" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I186">
+        <v>35.117429999999999</v>
+      </c>
+      <c r="J186">
+        <v>-119.62817</v>
+      </c>
+      <c r="K186" t="s">
+        <v>29</v>
+      </c>
+      <c r="L186" t="s">
+        <v>1</v>
+      </c>
+      <c r="M186" t="s">
+        <v>32</v>
+      </c>
+      <c r="P186">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>37</v>
+      </c>
+      <c r="R186" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19">
+      <c r="A187">
+        <v>2018</v>
+      </c>
+      <c r="B187">
+        <v>80</v>
+      </c>
+      <c r="C187">
+        <v>4</v>
+      </c>
+      <c r="D187">
+        <v>150.63</v>
+      </c>
+      <c r="E187">
+        <v>7</v>
+      </c>
+      <c r="F187" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G187" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I187">
+        <v>35.115169999999999</v>
+      </c>
+      <c r="J187">
+        <v>-119.62369</v>
+      </c>
+      <c r="K187" t="s">
+        <v>29</v>
+      </c>
+      <c r="L187" t="s">
+        <v>1</v>
+      </c>
+      <c r="P187">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>37</v>
+      </c>
+      <c r="R187" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19">
+      <c r="A188">
+        <v>2018</v>
+      </c>
+      <c r="B188">
+        <v>13</v>
+      </c>
+      <c r="C188">
+        <v>24</v>
+      </c>
+      <c r="D188">
+        <v>151.61000000000001</v>
+      </c>
+      <c r="E188">
+        <v>7</v>
+      </c>
+      <c r="F188" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I188">
+        <v>35.115349999999999</v>
+      </c>
+      <c r="J188">
+        <v>-119.62362</v>
+      </c>
+      <c r="K188" t="s">
+        <v>29</v>
+      </c>
+      <c r="L188" t="s">
+        <v>1</v>
+      </c>
+      <c r="M188" t="s">
+        <v>10</v>
+      </c>
+      <c r="P188">
+        <v>1.746</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>37</v>
+      </c>
+      <c r="R188" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19">
+      <c r="A189">
+        <v>2018</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>14</v>
+      </c>
+      <c r="D189">
+        <v>151.089</v>
+      </c>
+      <c r="E189">
+        <v>7</v>
+      </c>
+      <c r="F189" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G189" s="2">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I189">
+        <v>35.120890000000003</v>
+      </c>
+      <c r="J189">
+        <v>-119.62560999999999</v>
+      </c>
+      <c r="K189" t="s">
+        <v>29</v>
+      </c>
+      <c r="L189" t="s">
+        <v>1</v>
+      </c>
+      <c r="M189" t="s">
+        <v>32</v>
+      </c>
+      <c r="P189">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>40</v>
+      </c>
+      <c r="R189" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19">
+      <c r="A190">
+        <v>2018</v>
+      </c>
+      <c r="B190">
+        <v>93</v>
+      </c>
+      <c r="C190">
+        <v>19</v>
+      </c>
+      <c r="D190">
+        <v>151.29</v>
+      </c>
+      <c r="E190">
+        <v>7</v>
+      </c>
+      <c r="F190" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G190" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I190">
+        <v>35.120469999999997</v>
+      </c>
+      <c r="J190">
+        <v>-119.6263</v>
+      </c>
+      <c r="K190" t="s">
+        <v>29</v>
+      </c>
+      <c r="L190" t="s">
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>5</v>
+      </c>
+      <c r="R190" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
+      <c r="A191">
+        <v>2018</v>
+      </c>
+      <c r="B191">
+        <v>100</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>150.54900000000001</v>
+      </c>
+      <c r="E191">
+        <v>7</v>
+      </c>
+      <c r="F191" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G191" s="2">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I191">
+        <v>35.11797</v>
+      </c>
+      <c r="J191">
+        <v>-119.62663000000001</v>
+      </c>
+      <c r="K191" t="s">
+        <v>33</v>
+      </c>
+      <c r="L191" t="s">
+        <v>1</v>
+      </c>
+      <c r="P191">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>5</v>
+      </c>
+      <c r="R191" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19">
+      <c r="A192">
+        <v>2018</v>
+      </c>
+      <c r="B192">
+        <v>9</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>150.57</v>
+      </c>
+      <c r="E192">
+        <v>7</v>
+      </c>
+      <c r="F192" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G192" s="2">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I192">
+        <v>35.117019999999997</v>
+      </c>
+      <c r="J192">
+        <v>-119.63361999999999</v>
+      </c>
+      <c r="K192" t="s">
+        <v>29</v>
+      </c>
+      <c r="L192" t="s">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>1.514</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>5</v>
+      </c>
+      <c r="R192" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18">
+      <c r="A193">
+        <v>2018</v>
+      </c>
+      <c r="B193">
+        <v>99</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>150.60900000000001</v>
+      </c>
+      <c r="E193">
+        <v>7</v>
+      </c>
+      <c r="F193" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G193" s="2">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I193">
+        <v>35.115220000000001</v>
+      </c>
+      <c r="J193">
+        <v>-119.62506999999999</v>
+      </c>
+      <c r="K193" t="s">
+        <v>29</v>
+      </c>
+      <c r="L193" t="s">
+        <v>1</v>
+      </c>
+      <c r="M193" t="s">
+        <v>32</v>
+      </c>
+      <c r="P193">
+        <v>1.56</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>68</v>
+      </c>
+      <c r="R193" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18">
+      <c r="A194">
+        <v>2018</v>
+      </c>
+      <c r="B194">
+        <v>30</v>
+      </c>
+      <c r="C194">
+        <v>7</v>
+      </c>
+      <c r="D194">
+        <v>150.77000000000001</v>
+      </c>
+      <c r="E194">
+        <v>7</v>
+      </c>
+      <c r="F194" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G194" s="2">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I194">
+        <v>35.118029999999997</v>
+      </c>
+      <c r="J194">
+        <v>-119.63364</v>
+      </c>
+      <c r="K194" t="s">
+        <v>33</v>
+      </c>
+      <c r="L194" t="s">
+        <v>1</v>
+      </c>
+      <c r="M194" t="s">
+        <v>32</v>
+      </c>
+      <c r="N194" t="s">
+        <v>35</v>
+      </c>
+      <c r="P194">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>5</v>
+      </c>
+      <c r="R194" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18">
+      <c r="A195">
+        <v>2018</v>
+      </c>
+      <c r="B195">
+        <v>56</v>
+      </c>
+      <c r="C195">
+        <v>9</v>
+      </c>
+      <c r="D195">
+        <v>150.81</v>
+      </c>
+      <c r="E195">
+        <v>7</v>
+      </c>
+      <c r="F195" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G195" s="2">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I195">
+        <v>35.117339999999999</v>
+      </c>
+      <c r="J195">
+        <v>-119.63391</v>
+      </c>
+      <c r="K195" t="s">
+        <v>29</v>
+      </c>
+      <c r="L195" t="s">
+        <v>1</v>
+      </c>
+      <c r="M195" t="s">
+        <v>32</v>
+      </c>
+      <c r="P195">
+        <v>1.591</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>37</v>
+      </c>
+      <c r="R195" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18">
+      <c r="A196">
+        <v>2018</v>
+      </c>
+      <c r="B196">
+        <v>200</v>
+      </c>
+      <c r="C196">
+        <v>10</v>
+      </c>
+      <c r="D196">
+        <v>150.83000000000001</v>
+      </c>
+      <c r="E196">
+        <v>7</v>
+      </c>
+      <c r="F196" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G196" s="2">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I196">
+        <v>35.118110000000001</v>
+      </c>
+      <c r="J196">
+        <v>-119.63175</v>
+      </c>
+      <c r="K196" t="s">
+        <v>29</v>
+      </c>
+      <c r="L196" t="s">
+        <v>1</v>
+      </c>
+      <c r="P196">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>37</v>
+      </c>
+      <c r="R196" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18">
+      <c r="A197">
+        <v>2018</v>
+      </c>
+      <c r="B197">
+        <v>20</v>
+      </c>
+      <c r="C197">
+        <v>11</v>
+      </c>
+      <c r="D197">
+        <v>151</v>
+      </c>
+      <c r="E197">
+        <v>7</v>
+      </c>
+      <c r="F197" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G197" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I197">
+        <v>35.119909999999997</v>
+      </c>
+      <c r="J197">
+        <v>-119.62893</v>
+      </c>
+      <c r="K197" t="s">
+        <v>29</v>
+      </c>
+      <c r="L197" t="s">
+        <v>1</v>
+      </c>
+      <c r="M197" t="s">
+        <v>32</v>
+      </c>
+      <c r="P197">
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>37</v>
+      </c>
+      <c r="R197" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18">
+      <c r="A198">
+        <v>2018</v>
+      </c>
+      <c r="B198">
+        <v>176</v>
+      </c>
+      <c r="C198">
+        <v>12</v>
+      </c>
+      <c r="D198">
+        <v>151.029</v>
+      </c>
+      <c r="E198">
+        <v>7</v>
+      </c>
+      <c r="F198" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G198" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I198">
+        <v>35.116</v>
+      </c>
+      <c r="J198">
+        <v>-119.63576999999999</v>
+      </c>
+      <c r="K198" t="s">
+        <v>33</v>
+      </c>
+      <c r="L198" t="s">
+        <v>1</v>
+      </c>
+      <c r="M198" t="s">
+        <v>32</v>
+      </c>
+      <c r="N198" t="s">
+        <v>35</v>
+      </c>
+      <c r="P198">
+        <v>1.597</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>5</v>
+      </c>
+      <c r="R198" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
+      <c r="A199">
+        <v>2018</v>
+      </c>
+      <c r="B199">
+        <v>19</v>
+      </c>
+      <c r="C199">
+        <v>13</v>
+      </c>
+      <c r="D199">
+        <v>151.04900000000001</v>
+      </c>
+      <c r="E199">
+        <v>7</v>
+      </c>
+      <c r="F199" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G199" s="2">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I199">
+        <v>35.119959999999999</v>
+      </c>
+      <c r="J199">
+        <v>-119.62918999999999</v>
+      </c>
+      <c r="K199" t="s">
+        <v>29</v>
+      </c>
+      <c r="L199" t="s">
+        <v>1</v>
+      </c>
+      <c r="M199" t="s">
+        <v>32</v>
+      </c>
+      <c r="N199" t="s">
+        <v>35</v>
+      </c>
+      <c r="P199">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>37</v>
+      </c>
+      <c r="R199" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18">
+      <c r="A200">
+        <v>2018</v>
+      </c>
+      <c r="B200">
+        <v>12</v>
+      </c>
+      <c r="C200">
+        <v>15</v>
+      </c>
+      <c r="D200">
+        <v>151.11000000000001</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+      <c r="F200" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G200" s="2">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I200">
+        <v>35.11835</v>
+      </c>
+      <c r="J200">
+        <v>-119.63065</v>
+      </c>
+      <c r="K200" t="s">
+        <v>29</v>
+      </c>
+      <c r="L200" t="s">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>1.712</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>5</v>
+      </c>
+      <c r="R200" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18">
+      <c r="A201">
+        <v>2018</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>16</v>
+      </c>
+      <c r="D201">
+        <v>151.11000000000001</v>
+      </c>
+      <c r="E201">
+        <v>7</v>
+      </c>
+      <c r="F201" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G201" s="2">
+        <v>0.53194444444444444</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I201">
+        <v>35.117980000000003</v>
+      </c>
+      <c r="J201">
+        <v>-119.62981000000001</v>
+      </c>
+      <c r="K201" t="s">
+        <v>29</v>
+      </c>
+      <c r="L201" t="s">
+        <v>1</v>
+      </c>
+      <c r="M201" t="s">
+        <v>32</v>
+      </c>
+      <c r="P201">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>37</v>
+      </c>
+      <c r="R201" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
+      <c r="A202">
+        <v>2018</v>
+      </c>
+      <c r="B202">
+        <v>40</v>
+      </c>
+      <c r="C202">
+        <v>17</v>
+      </c>
+      <c r="D202">
+        <v>151.209</v>
+      </c>
+      <c r="E202">
+        <v>7</v>
+      </c>
+      <c r="F202" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G202" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I202">
+        <v>35.112270000000002</v>
+      </c>
+      <c r="J202">
+        <v>-119.63384000000001</v>
+      </c>
+      <c r="K202" t="s">
+        <v>29</v>
+      </c>
+      <c r="L202" t="s">
+        <v>1</v>
+      </c>
+      <c r="M202" t="s">
+        <v>41</v>
+      </c>
+      <c r="P202">
+        <v>1.589</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>37</v>
+      </c>
+      <c r="R202" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18">
+      <c r="A203">
+        <v>2018</v>
+      </c>
+      <c r="B203">
+        <v>35</v>
+      </c>
+      <c r="C203">
+        <v>18</v>
+      </c>
+      <c r="D203">
+        <v>151.22999999999999</v>
+      </c>
+      <c r="E203">
+        <v>7</v>
+      </c>
+      <c r="F203" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G203" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I203">
+        <v>35.118259999999999</v>
+      </c>
+      <c r="J203">
+        <v>-119.63193</v>
+      </c>
+      <c r="K203" t="s">
+        <v>29</v>
+      </c>
+      <c r="L203" t="s">
+        <v>1</v>
+      </c>
+      <c r="M203" t="s">
+        <v>35</v>
+      </c>
+      <c r="P203">
+        <v>1.714</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>67</v>
+      </c>
+      <c r="R203" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18">
+      <c r="A204">
+        <v>2018</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>21</v>
+      </c>
+      <c r="D204">
+        <v>151.43</v>
+      </c>
+      <c r="E204">
+        <v>7</v>
+      </c>
+      <c r="F204" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G204" s="2">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I204">
+        <v>35.125909999999998</v>
+      </c>
+      <c r="J204">
+        <v>-119.63711000000001</v>
+      </c>
+      <c r="K204" t="s">
+        <v>29</v>
+      </c>
+      <c r="L204" t="s">
+        <v>1</v>
+      </c>
+      <c r="M204" t="s">
+        <v>35</v>
+      </c>
+      <c r="P204">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>37</v>
+      </c>
+      <c r="R204" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
+      <c r="A205">
+        <v>2018</v>
+      </c>
+      <c r="B205">
+        <v>11</v>
+      </c>
+      <c r="C205">
+        <v>22</v>
+      </c>
+      <c r="D205">
+        <v>151.47</v>
+      </c>
+      <c r="E205">
+        <v>7</v>
+      </c>
+      <c r="F205" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G205" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I205">
+        <v>35.12415</v>
+      </c>
+      <c r="J205">
+        <v>-119.63522</v>
+      </c>
+      <c r="K205" t="s">
+        <v>29</v>
+      </c>
+      <c r="L205" t="s">
+        <v>42</v>
+      </c>
+      <c r="M205" t="s">
+        <v>36</v>
+      </c>
+      <c r="P205">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>37</v>
+      </c>
+      <c r="R205" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
+      <c r="A206">
+        <v>2018</v>
+      </c>
+      <c r="B206">
+        <v>47</v>
+      </c>
+      <c r="C206">
+        <v>25</v>
+      </c>
+      <c r="D206">
+        <v>151.649</v>
+      </c>
+      <c r="E206">
+        <v>7</v>
+      </c>
+      <c r="F206" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G206" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I206">
+        <v>35.120289999999997</v>
+      </c>
+      <c r="J206">
+        <v>-119.62730999999999</v>
+      </c>
+      <c r="K206" t="s">
+        <v>29</v>
+      </c>
+      <c r="L206" t="s">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>1.601</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>5</v>
+      </c>
+      <c r="R206" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18">
+      <c r="A207">
+        <v>2018</v>
+      </c>
+      <c r="B207">
+        <v>64</v>
+      </c>
+      <c r="C207">
+        <v>8</v>
+      </c>
+      <c r="D207">
+        <v>151.79</v>
+      </c>
+      <c r="E207">
+        <v>7</v>
+      </c>
+      <c r="F207" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G207" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I207">
+        <v>35.115299999999998</v>
+      </c>
+      <c r="J207">
+        <v>-119.61946</v>
+      </c>
+      <c r="K207" t="s">
+        <v>29</v>
+      </c>
+      <c r="L207" t="s">
+        <v>1</v>
+      </c>
+      <c r="M207" t="s">
+        <v>32</v>
+      </c>
+      <c r="P207">
+        <v>1.633</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>37</v>
+      </c>
+      <c r="R207" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
+      <c r="A208">
+        <v>2018</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208">
+        <v>26</v>
+      </c>
+      <c r="D208">
+        <v>151.809</v>
+      </c>
+      <c r="E208">
+        <v>7</v>
+      </c>
+      <c r="F208" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G208" s="2">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I208">
+        <v>35.125190000000003</v>
+      </c>
+      <c r="J208">
+        <v>-119.63654</v>
+      </c>
+      <c r="K208" t="s">
+        <v>29</v>
+      </c>
+      <c r="L208" t="s">
+        <v>1</v>
+      </c>
+      <c r="M208" t="s">
+        <v>32</v>
+      </c>
+      <c r="P208">
+        <v>1.478</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>37</v>
+      </c>
+      <c r="R208" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19">
+      <c r="A209">
+        <v>2018</v>
+      </c>
+      <c r="B209">
+        <v>22</v>
+      </c>
+      <c r="C209">
+        <v>27</v>
+      </c>
+      <c r="D209">
+        <v>151.83000000000001</v>
+      </c>
+      <c r="E209">
+        <v>7</v>
+      </c>
+      <c r="F209" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G209" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I209">
+        <v>35.117609999999999</v>
+      </c>
+      <c r="J209">
+        <v>-119.633</v>
+      </c>
+      <c r="K209" t="s">
+        <v>33</v>
+      </c>
+      <c r="L209" t="s">
+        <v>1</v>
+      </c>
+      <c r="M209" t="s">
+        <v>35</v>
+      </c>
+      <c r="P209">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>5</v>
+      </c>
+      <c r="R209" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19">
+      <c r="A210">
+        <v>2018</v>
+      </c>
+      <c r="B210">
+        <v>39</v>
+      </c>
+      <c r="C210">
+        <v>28</v>
+      </c>
+      <c r="D210">
+        <v>151.84899999999999</v>
+      </c>
+      <c r="E210">
+        <v>7</v>
+      </c>
+      <c r="F210" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G210" s="2">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I210">
+        <v>35.116480000000003</v>
+      </c>
+      <c r="J210">
+        <v>-119.62589</v>
+      </c>
+      <c r="K210" t="s">
+        <v>29</v>
+      </c>
+      <c r="L210" t="s">
+        <v>1</v>
+      </c>
+      <c r="M210" t="s">
+        <v>32</v>
+      </c>
+      <c r="P210">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>37</v>
+      </c>
+      <c r="R210" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19">
+      <c r="A211">
+        <v>2018</v>
+      </c>
+      <c r="B211">
+        <v>1337</v>
+      </c>
+      <c r="C211">
+        <v>29</v>
+      </c>
+      <c r="D211">
+        <v>151.91</v>
+      </c>
+      <c r="E211">
+        <v>7</v>
+      </c>
+      <c r="F211" s="1">
+        <v>43234</v>
+      </c>
+      <c r="G211" s="2">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I211">
+        <v>35.120710000000003</v>
+      </c>
+      <c r="J211">
+        <v>-119.62889</v>
+      </c>
+      <c r="K211" t="s">
+        <v>29</v>
+      </c>
+      <c r="L211" t="s">
+        <v>1</v>
+      </c>
+      <c r="M211" t="s">
+        <v>32</v>
+      </c>
+      <c r="N211" t="s">
+        <v>35</v>
+      </c>
+      <c r="P211">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>37</v>
+      </c>
+      <c r="R211" t="s">
+        <v>57</v>
+      </c>
+      <c r="S211" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19">
+      <c r="F212" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:R183">
-    <sortCondition ref="E2:E183"/>
+  <sortState ref="A2:S211">
+    <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
